--- a/fix_.xlsx
+++ b/fix_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D2303-0C18-834C-AF14-13563C617C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE25DAC1-6E0A-7B4C-93A5-9153D1F54DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grounds" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="475">
   <si>
     <t>Division</t>
   </si>
@@ -2037,7 +2037,231 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="327">
+  <dxfs count="359">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4647,11 +4871,11 @@
   <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5355,6 +5579,33 @@
       <c r="N15" t="s">
         <v>468</v>
       </c>
+      <c r="O15" t="s">
+        <v>472</v>
+      </c>
+      <c r="P15" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>472</v>
+      </c>
+      <c r="R15" t="s">
+        <v>472</v>
+      </c>
+      <c r="S15" t="s">
+        <v>472</v>
+      </c>
+      <c r="T15" t="s">
+        <v>472</v>
+      </c>
+      <c r="U15" t="s">
+        <v>472</v>
+      </c>
+      <c r="V15" t="s">
+        <v>472</v>
+      </c>
+      <c r="W15" t="s">
+        <v>472</v>
+      </c>
       <c r="X15" t="s">
         <v>468</v>
       </c>
@@ -5377,7 +5628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5405,29 +5656,56 @@
       <c r="I16" t="s">
         <v>468</v>
       </c>
+      <c r="J16" t="s">
+        <v>472</v>
+      </c>
       <c r="K16" t="s">
         <v>468</v>
       </c>
+      <c r="L16" t="s">
+        <v>472</v>
+      </c>
       <c r="M16" t="s">
         <v>468</v>
       </c>
+      <c r="N16" t="s">
+        <v>472</v>
+      </c>
       <c r="O16" t="s">
         <v>468</v>
       </c>
+      <c r="P16" t="s">
+        <v>472</v>
+      </c>
       <c r="Q16" t="s">
         <v>468</v>
       </c>
+      <c r="R16" t="s">
+        <v>472</v>
+      </c>
       <c r="S16" t="s">
         <v>468</v>
       </c>
+      <c r="T16" t="s">
+        <v>472</v>
+      </c>
       <c r="U16" t="s">
         <v>468</v>
       </c>
+      <c r="V16" t="s">
+        <v>472</v>
+      </c>
       <c r="W16" t="s">
         <v>468</v>
       </c>
+      <c r="X16" t="s">
+        <v>472</v>
+      </c>
       <c r="Y16" t="s">
         <v>468</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>472</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="0"/>
@@ -6374,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -7118,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>206</v>
       </c>
@@ -7771,7 +8049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>265</v>
       </c>
@@ -9660,7 +9938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>392</v>
       </c>
@@ -10055,7 +10333,7 @@
   <autoFilter ref="A1:Z131" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Telugu Association of Cambridge CC"/>
+        <filter val="March Town CC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -10064,17 +10342,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="323" stopIfTrue="1" operator="equal" id="{B8F21C49-FECB-2747-BD76-17F1F07CE896}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="324" operator="equal" id="{43E45996-2389-7648-8C3F-1AF918726F4B}">
+          <x14:cfRule type="cellIs" priority="355" stopIfTrue="1" operator="equal" id="{B8F21C49-FECB-2747-BD76-17F1F07CE896}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="356" operator="equal" id="{43E45996-2389-7648-8C3F-1AF918726F4B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10087,17 +10365,17 @@
           <xm:sqref>P60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="321" stopIfTrue="1" operator="equal" id="{B46758B0-3BA8-AA40-B39D-C372A753D4B2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="322" operator="equal" id="{E7360A3B-6FE0-C140-A2E5-FF66C79E1A10}">
+          <x14:cfRule type="cellIs" priority="353" stopIfTrue="1" operator="equal" id="{B46758B0-3BA8-AA40-B39D-C372A753D4B2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="354" operator="equal" id="{E7360A3B-6FE0-C140-A2E5-FF66C79E1A10}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10110,17 +10388,17 @@
           <xm:sqref>T164</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="319" stopIfTrue="1" operator="equal" id="{93C40306-2B16-D748-9237-BACE77ADADDD}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="320" operator="equal" id="{C27BD638-4639-9849-BD99-C9FA53F2D1E6}">
+          <x14:cfRule type="cellIs" priority="351" stopIfTrue="1" operator="equal" id="{93C40306-2B16-D748-9237-BACE77ADADDD}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="352" operator="equal" id="{C27BD638-4639-9849-BD99-C9FA53F2D1E6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10133,17 +10411,17 @@
           <xm:sqref>V77</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="317" stopIfTrue="1" operator="equal" id="{16DE8540-DF28-D648-A00C-141869EA1F99}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="318" operator="equal" id="{7F563A28-F177-D14C-B245-BAA1843144B9}">
+          <x14:cfRule type="cellIs" priority="349" stopIfTrue="1" operator="equal" id="{16DE8540-DF28-D648-A00C-141869EA1F99}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="350" operator="equal" id="{7F563A28-F177-D14C-B245-BAA1843144B9}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10156,17 +10434,17 @@
           <xm:sqref>R110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="315" stopIfTrue="1" operator="equal" id="{AB6767D3-634E-6D4B-8B2C-542E5C878924}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="316" operator="equal" id="{7EF5F508-5D8B-4E43-B3A3-D8622DC97046}">
+          <x14:cfRule type="cellIs" priority="347" stopIfTrue="1" operator="equal" id="{AB6767D3-634E-6D4B-8B2C-542E5C878924}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="348" operator="equal" id="{7EF5F508-5D8B-4E43-B3A3-D8622DC97046}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10179,17 +10457,17 @@
           <xm:sqref>O110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="313" stopIfTrue="1" operator="equal" id="{1E3B7A9C-CCDB-4849-A2FC-548F8350AC2E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="314" operator="equal" id="{916BE90E-312C-554E-876F-4F531B0E91F1}">
+          <x14:cfRule type="cellIs" priority="345" stopIfTrue="1" operator="equal" id="{1E3B7A9C-CCDB-4849-A2FC-548F8350AC2E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="346" operator="equal" id="{916BE90E-312C-554E-876F-4F531B0E91F1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10202,17 +10480,17 @@
           <xm:sqref>L50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="311" stopIfTrue="1" operator="equal" id="{B23D8F6B-8834-9A49-BF0C-843A80F9C53D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="312" operator="equal" id="{47CD7949-FFC0-CB48-8AFD-38281BEC40CC}">
+          <x14:cfRule type="cellIs" priority="343" stopIfTrue="1" operator="equal" id="{B23D8F6B-8834-9A49-BF0C-843A80F9C53D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="344" operator="equal" id="{47CD7949-FFC0-CB48-8AFD-38281BEC40CC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10225,17 +10503,17 @@
           <xm:sqref>L85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="309" stopIfTrue="1" operator="equal" id="{C4F0806F-CB42-BA47-995D-ACDFE57CECA8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="310" operator="equal" id="{7695F84A-29B6-B64E-A47E-85747B6873E3}">
+          <x14:cfRule type="cellIs" priority="341" stopIfTrue="1" operator="equal" id="{C4F0806F-CB42-BA47-995D-ACDFE57CECA8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="342" operator="equal" id="{7695F84A-29B6-B64E-A47E-85747B6873E3}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10248,17 +10526,17 @@
           <xm:sqref>L118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="307" stopIfTrue="1" operator="equal" id="{6C3D3A5E-946E-1944-9EA1-4964BC352CCD}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="308" operator="equal" id="{636AFD87-ADC7-D944-8B2A-CF180A29CF34}">
+          <x14:cfRule type="cellIs" priority="339" stopIfTrue="1" operator="equal" id="{6C3D3A5E-946E-1944-9EA1-4964BC352CCD}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="340" operator="equal" id="{636AFD87-ADC7-D944-8B2A-CF180A29CF34}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10271,17 +10549,17 @@
           <xm:sqref>Y50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="305" stopIfTrue="1" operator="equal" id="{41FA12C1-F618-1B4C-8412-8B1F6D68C21D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="306" operator="equal" id="{9D8DB297-720F-3843-9D71-A7789D2A5DA2}">
+          <x14:cfRule type="cellIs" priority="337" stopIfTrue="1" operator="equal" id="{41FA12C1-F618-1B4C-8412-8B1F6D68C21D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="338" operator="equal" id="{9D8DB297-720F-3843-9D71-A7789D2A5DA2}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10294,17 +10572,17 @@
           <xm:sqref>Y85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="303" stopIfTrue="1" operator="equal" id="{51C1B59A-379A-7346-8D4E-FC15C5C7405E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="304" operator="equal" id="{4C0BF843-7425-E74B-9372-EA346ABC03F9}">
+          <x14:cfRule type="cellIs" priority="335" stopIfTrue="1" operator="equal" id="{51C1B59A-379A-7346-8D4E-FC15C5C7405E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="336" operator="equal" id="{4C0BF843-7425-E74B-9372-EA346ABC03F9}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10317,17 +10595,17 @@
           <xm:sqref>Y118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="301" stopIfTrue="1" operator="equal" id="{9538A419-BBD1-1546-864F-DDDCAFE47FCD}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="302" operator="equal" id="{5E349D6D-E167-F240-81DA-45DDC1C5B28F}">
+          <x14:cfRule type="cellIs" priority="333" stopIfTrue="1" operator="equal" id="{9538A419-BBD1-1546-864F-DDDCAFE47FCD}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="334" operator="equal" id="{5E349D6D-E167-F240-81DA-45DDC1C5B28F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10340,17 +10618,17 @@
           <xm:sqref>Q13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="299" stopIfTrue="1" operator="equal" id="{DF33F242-E9B8-EF49-BB65-4A3705FD57E0}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="300" operator="equal" id="{46E8D10D-B9BD-F441-B124-59A399E47EB6}">
+          <x14:cfRule type="cellIs" priority="331" stopIfTrue="1" operator="equal" id="{DF33F242-E9B8-EF49-BB65-4A3705FD57E0}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="332" operator="equal" id="{46E8D10D-B9BD-F441-B124-59A399E47EB6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10363,17 +10641,17 @@
           <xm:sqref>Q86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="297" stopIfTrue="1" operator="equal" id="{08C9F9B7-AA1B-0748-AA41-091984CEA4E4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="298" operator="equal" id="{D6348B08-61C4-3347-8491-60A74A98F26C}">
+          <x14:cfRule type="cellIs" priority="329" stopIfTrue="1" operator="equal" id="{08C9F9B7-AA1B-0748-AA41-091984CEA4E4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="330" operator="equal" id="{D6348B08-61C4-3347-8491-60A74A98F26C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10386,17 +10664,17 @@
           <xm:sqref>Q127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal" id="{A5DD4F50-85D2-E54A-AB69-6BE5F524114E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="296" operator="equal" id="{AE7AF954-5717-C94D-AD8B-74D51CFC9FE4}">
+          <x14:cfRule type="cellIs" priority="327" stopIfTrue="1" operator="equal" id="{A5DD4F50-85D2-E54A-AB69-6BE5F524114E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="328" operator="equal" id="{AE7AF954-5717-C94D-AD8B-74D51CFC9FE4}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10409,17 +10687,17 @@
           <xm:sqref>X32:Y32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="293" stopIfTrue="1" operator="equal" id="{C92C2676-7E82-BE4E-883F-9E5B5CADBDA3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="294" operator="equal" id="{7256ACD3-009B-6D4F-B54E-0A4FB7D2CB2A}">
+          <x14:cfRule type="cellIs" priority="325" stopIfTrue="1" operator="equal" id="{C92C2676-7E82-BE4E-883F-9E5B5CADBDA3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="326" operator="equal" id="{7256ACD3-009B-6D4F-B54E-0A4FB7D2CB2A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10432,17 +10710,17 @@
           <xm:sqref>Y113</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="291" stopIfTrue="1" operator="equal" id="{6DFA191F-D215-7D4A-8961-3838E6A138FD}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="292" operator="equal" id="{CB16CEA5-2269-8744-B190-FB139C4FFCCB}">
+          <x14:cfRule type="cellIs" priority="323" stopIfTrue="1" operator="equal" id="{6DFA191F-D215-7D4A-8961-3838E6A138FD}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="324" operator="equal" id="{CB16CEA5-2269-8744-B190-FB139C4FFCCB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10455,17 +10733,17 @@
           <xm:sqref>L32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal" id="{C83775D6-7D11-2742-B01D-F7ED26824318}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="290" operator="equal" id="{ADC8B188-04C6-BB4B-BE5C-F08FA019D443}">
+          <x14:cfRule type="cellIs" priority="321" stopIfTrue="1" operator="equal" id="{C83775D6-7D11-2742-B01D-F7ED26824318}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="322" operator="equal" id="{ADC8B188-04C6-BB4B-BE5C-F08FA019D443}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10478,17 +10756,17 @@
           <xm:sqref>K32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal" id="{A767E0F9-7D9F-C349-B0F4-FDB2FBD44217}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="288" operator="equal" id="{29F6DA90-A96B-3946-839E-BCFBA80E4131}">
+          <x14:cfRule type="cellIs" priority="319" stopIfTrue="1" operator="equal" id="{A767E0F9-7D9F-C349-B0F4-FDB2FBD44217}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="320" operator="equal" id="{29F6DA90-A96B-3946-839E-BCFBA80E4131}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10501,17 +10779,17 @@
           <xm:sqref>J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="285" stopIfTrue="1" operator="equal" id="{38BB6F49-D8A8-6140-BEF1-AA2688549088}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="286" operator="equal" id="{A2D845B8-E7DA-BE43-A870-34712615AE36}">
+          <x14:cfRule type="cellIs" priority="317" stopIfTrue="1" operator="equal" id="{38BB6F49-D8A8-6140-BEF1-AA2688549088}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="318" operator="equal" id="{A2D845B8-E7DA-BE43-A870-34712615AE36}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10524,17 +10802,17 @@
           <xm:sqref>I32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="283" stopIfTrue="1" operator="equal" id="{5387F593-BB90-A84D-B2E5-11E6A788FC5F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="284" operator="equal" id="{5D0B0D7A-2EA2-E24D-8DF3-DF5D88B09728}">
+          <x14:cfRule type="cellIs" priority="315" stopIfTrue="1" operator="equal" id="{5387F593-BB90-A84D-B2E5-11E6A788FC5F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="316" operator="equal" id="{5D0B0D7A-2EA2-E24D-8DF3-DF5D88B09728}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10547,17 +10825,17 @@
           <xm:sqref>Q69</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="281" stopIfTrue="1" operator="equal" id="{11490116-2FE1-1A4B-BE92-F615B4124EEC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="282" operator="equal" id="{D9AF94E4-DFC3-5A44-B712-6DB258EECC93}">
+          <x14:cfRule type="cellIs" priority="313" stopIfTrue="1" operator="equal" id="{11490116-2FE1-1A4B-BE92-F615B4124EEC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="314" operator="equal" id="{D9AF94E4-DFC3-5A44-B712-6DB258EECC93}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10570,17 +10848,17 @@
           <xm:sqref>J42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="279" stopIfTrue="1" operator="equal" id="{DDE200A8-049C-E448-A55E-8479759DD008}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="280" operator="equal" id="{C728B3C0-FF45-FB4F-B0AF-D1AD3D258F40}">
+          <x14:cfRule type="cellIs" priority="311" stopIfTrue="1" operator="equal" id="{DDE200A8-049C-E448-A55E-8479759DD008}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="312" operator="equal" id="{C728B3C0-FF45-FB4F-B0AF-D1AD3D258F40}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10593,17 +10871,17 @@
           <xm:sqref>J119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="277" stopIfTrue="1" operator="equal" id="{7096E9D6-B401-D845-9C04-A949D1D78862}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="278" operator="equal" id="{73FEE7DB-FD05-A44C-B642-9A042DADCD8B}">
+          <x14:cfRule type="cellIs" priority="309" stopIfTrue="1" operator="equal" id="{7096E9D6-B401-D845-9C04-A949D1D78862}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="310" operator="equal" id="{73FEE7DB-FD05-A44C-B642-9A042DADCD8B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10616,17 +10894,17 @@
           <xm:sqref>Y25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="275" stopIfTrue="1" operator="equal" id="{31EDCF1A-E223-1B4E-AEF6-5253E1FA747C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="276" operator="equal" id="{0B86EB7E-06B8-1544-95F8-899BE916F22A}">
+          <x14:cfRule type="cellIs" priority="307" stopIfTrue="1" operator="equal" id="{31EDCF1A-E223-1B4E-AEF6-5253E1FA747C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="308" operator="equal" id="{0B86EB7E-06B8-1544-95F8-899BE916F22A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10639,17 +10917,17 @@
           <xm:sqref>Y87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="273" stopIfTrue="1" operator="equal" id="{30618EDE-2BB5-B945-82A2-1F5ABE4220F4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="274" operator="equal" id="{68B557E1-CBB1-A341-9EB8-420ECD4BFAF5}">
+          <x14:cfRule type="cellIs" priority="305" stopIfTrue="1" operator="equal" id="{30618EDE-2BB5-B945-82A2-1F5ABE4220F4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="306" operator="equal" id="{68B557E1-CBB1-A341-9EB8-420ECD4BFAF5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10662,17 +10940,17 @@
           <xm:sqref>O52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal" id="{8B5EE881-1608-574D-BA7F-9C181DFC7C4B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="272" operator="equal" id="{AFC9F4E1-8E69-B24C-8C0C-B0401808815F}">
+          <x14:cfRule type="cellIs" priority="303" stopIfTrue="1" operator="equal" id="{8B5EE881-1608-574D-BA7F-9C181DFC7C4B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="304" operator="equal" id="{AFC9F4E1-8E69-B24C-8C0C-B0401808815F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10685,17 +10963,17 @@
           <xm:sqref>O117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="269" stopIfTrue="1" operator="equal" id="{A14459BF-C5D7-484B-8386-99AC1C406339}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="270" operator="equal" id="{EBD86FAF-2699-A444-9569-13DC62F6B791}">
+          <x14:cfRule type="cellIs" priority="301" stopIfTrue="1" operator="equal" id="{A14459BF-C5D7-484B-8386-99AC1C406339}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="302" operator="equal" id="{EBD86FAF-2699-A444-9569-13DC62F6B791}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10708,17 +10986,17 @@
           <xm:sqref>R26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="267" stopIfTrue="1" operator="equal" id="{24F3F5D0-2250-494A-ABA1-CB3126CC29A2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="268" operator="equal" id="{E5B67126-4384-2646-B36E-F0E28A229F97}">
+          <x14:cfRule type="cellIs" priority="299" stopIfTrue="1" operator="equal" id="{24F3F5D0-2250-494A-ABA1-CB3126CC29A2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="300" operator="equal" id="{E5B67126-4384-2646-B36E-F0E28A229F97}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10731,17 +11009,17 @@
           <xm:sqref>R120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="265" stopIfTrue="1" operator="equal" id="{8ED96105-43C4-EC4A-9258-5335AE5695EE}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="266" operator="equal" id="{881727F1-F454-3E40-B9E5-2832E32A3597}">
+          <x14:cfRule type="cellIs" priority="297" stopIfTrue="1" operator="equal" id="{8ED96105-43C4-EC4A-9258-5335AE5695EE}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="298" operator="equal" id="{881727F1-F454-3E40-B9E5-2832E32A3597}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10754,17 +11032,17 @@
           <xm:sqref>Y120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="263" stopIfTrue="1" operator="equal" id="{33DA27C2-3E27-2248-9621-FA9DBBE902F4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="264" operator="equal" id="{AC0B924A-6B9D-E944-8D54-F6CD1C0F41BD}">
+          <x14:cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal" id="{33DA27C2-3E27-2248-9621-FA9DBBE902F4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="296" operator="equal" id="{AC0B924A-6B9D-E944-8D54-F6CD1C0F41BD}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10777,17 +11055,17 @@
           <xm:sqref>Q64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="261" stopIfTrue="1" operator="equal" id="{D7762E6B-0212-5A47-AEE7-4A3F1379904D}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="262" operator="equal" id="{59823944-DD40-5C45-828D-7DBD0AB7391C}">
+          <x14:cfRule type="cellIs" priority="293" stopIfTrue="1" operator="equal" id="{D7762E6B-0212-5A47-AEE7-4A3F1379904D}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="294" operator="equal" id="{59823944-DD40-5C45-828D-7DBD0AB7391C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10800,17 +11078,17 @@
           <xm:sqref>R64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="259" stopIfTrue="1" operator="equal" id="{97FA85E0-29BA-784A-B10F-2B34C26D5552}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="260" operator="equal" id="{29DF4259-F305-294E-9486-2C0A8E6480C8}">
+          <x14:cfRule type="cellIs" priority="291" stopIfTrue="1" operator="equal" id="{97FA85E0-29BA-784A-B10F-2B34C26D5552}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="292" operator="equal" id="{29DF4259-F305-294E-9486-2C0A8E6480C8}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10823,17 +11101,17 @@
           <xm:sqref>Z64</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="257" stopIfTrue="1" operator="equal" id="{B00B0F92-122B-2044-B4F8-4EC8D9B79547}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="258" operator="equal" id="{514B6500-0C2A-094E-A432-88F871D9A97D}">
+          <x14:cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal" id="{B00B0F92-122B-2044-B4F8-4EC8D9B79547}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="290" operator="equal" id="{514B6500-0C2A-094E-A432-88F871D9A97D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10846,17 +11124,17 @@
           <xm:sqref>K80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="255" stopIfTrue="1" operator="equal" id="{8EF1A0F2-C5FA-DD40-A98E-8EBD47ABB3E6}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="256" operator="equal" id="{05A4387F-4C05-D744-B209-1622B1BE3D6D}">
+          <x14:cfRule type="cellIs" priority="287" stopIfTrue="1" operator="equal" id="{8EF1A0F2-C5FA-DD40-A98E-8EBD47ABB3E6}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="288" operator="equal" id="{05A4387F-4C05-D744-B209-1622B1BE3D6D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10869,17 +11147,17 @@
           <xm:sqref>I70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="251" stopIfTrue="1" operator="equal" id="{68D4B57E-95A9-714E-8BA8-053E49B6F0FD}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="252" operator="equal" id="{876C5ABF-A4A5-C045-8D45-764666AF9AC0}">
+          <x14:cfRule type="cellIs" priority="283" stopIfTrue="1" operator="equal" id="{68D4B57E-95A9-714E-8BA8-053E49B6F0FD}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="284" operator="equal" id="{876C5ABF-A4A5-C045-8D45-764666AF9AC0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10892,17 +11170,17 @@
           <xm:sqref>N141</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal" id="{D4631A5F-3FF2-404F-A92F-56A3C4B113A6}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{168715D0-42E2-8D44-B497-2CF748F77068}">
+          <x14:cfRule type="cellIs" priority="279" stopIfTrue="1" operator="equal" id="{D4631A5F-3FF2-404F-A92F-56A3C4B113A6}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="280" operator="equal" id="{168715D0-42E2-8D44-B497-2CF748F77068}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10915,17 +11193,17 @@
           <xm:sqref>M54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal" id="{3050AC31-1DA1-4042-BCD9-BBF85A37353E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{59842BCD-F224-D146-9B5F-A31FE63EFCB7}">
+          <x14:cfRule type="cellIs" priority="277" stopIfTrue="1" operator="equal" id="{3050AC31-1DA1-4042-BCD9-BBF85A37353E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="278" operator="equal" id="{59842BCD-F224-D146-9B5F-A31FE63EFCB7}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10938,17 +11216,17 @@
           <xm:sqref>Q46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal" id="{9ABDBC09-81EE-EB4B-A699-7F00BE160088}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="244" operator="equal" id="{8DBE70D9-1DF3-484E-BDC1-400CC0015794}">
+          <x14:cfRule type="cellIs" priority="275" stopIfTrue="1" operator="equal" id="{9ABDBC09-81EE-EB4B-A699-7F00BE160088}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="276" operator="equal" id="{8DBE70D9-1DF3-484E-BDC1-400CC0015794}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10961,17 +11239,17 @@
           <xm:sqref>Q106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal" id="{A49A723B-3B95-784B-B820-18997758CC48}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="242" operator="equal" id="{C7B9F4B8-F1E4-6846-83F8-86607D2BCDFF}">
+          <x14:cfRule type="cellIs" priority="273" stopIfTrue="1" operator="equal" id="{A49A723B-3B95-784B-B820-18997758CC48}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="274" operator="equal" id="{C7B9F4B8-F1E4-6846-83F8-86607D2BCDFF}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -10984,17 +11262,17 @@
           <xm:sqref>K27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal" id="{EA90E7AD-B01C-6B48-B8CB-D9E26BD7C5E9}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{25290EBF-D3A4-DB45-8DFE-05EB630A0CB6}">
+          <x14:cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal" id="{EA90E7AD-B01C-6B48-B8CB-D9E26BD7C5E9}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="272" operator="equal" id="{25290EBF-D3A4-DB45-8DFE-05EB630A0CB6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11007,17 +11285,17 @@
           <xm:sqref>K121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal" id="{A1928833-4EBE-9A4A-BBDD-39DF21480F42}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="238" operator="equal" id="{5B02693A-38B8-E64C-8C4B-9B8B7BFBDC2C}">
+          <x14:cfRule type="cellIs" priority="269" stopIfTrue="1" operator="equal" id="{A1928833-4EBE-9A4A-BBDD-39DF21480F42}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="270" operator="equal" id="{5B02693A-38B8-E64C-8C4B-9B8B7BFBDC2C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11030,17 +11308,17 @@
           <xm:sqref>Q27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal" id="{3F2596E1-91B1-BE41-A0A0-151FA11897BA}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{DE2FA4F8-5EB3-A64B-B44F-56364B5DF89A}">
+          <x14:cfRule type="cellIs" priority="267" stopIfTrue="1" operator="equal" id="{3F2596E1-91B1-BE41-A0A0-151FA11897BA}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="268" operator="equal" id="{DE2FA4F8-5EB3-A64B-B44F-56364B5DF89A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11053,17 +11331,17 @@
           <xm:sqref>Q121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal" id="{B620E620-D4FD-9142-89C1-1CB93433C0CA}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{04FB0244-AEFE-CB43-92B7-4C612438BD6C}">
+          <x14:cfRule type="cellIs" priority="265" stopIfTrue="1" operator="equal" id="{B620E620-D4FD-9142-89C1-1CB93433C0CA}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="266" operator="equal" id="{04FB0244-AEFE-CB43-92B7-4C612438BD6C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11076,17 +11354,17 @@
           <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal" id="{980F4416-7056-A248-A824-7BDBDC224F71}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="232" operator="equal" id="{7606CB3C-3D26-574A-9422-F8A4C8C896C3}">
+          <x14:cfRule type="cellIs" priority="263" stopIfTrue="1" operator="equal" id="{980F4416-7056-A248-A824-7BDBDC224F71}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="264" operator="equal" id="{7606CB3C-3D26-574A-9422-F8A4C8C896C3}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11099,17 +11377,17 @@
           <xm:sqref>I82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal" id="{160A2ADE-ABA0-9C47-8EFA-842500EB0449}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{15BB4C4E-E140-FF46-8021-61DEB5BFEF68}">
+          <x14:cfRule type="cellIs" priority="261" stopIfTrue="1" operator="equal" id="{160A2ADE-ABA0-9C47-8EFA-842500EB0449}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="262" operator="equal" id="{15BB4C4E-E140-FF46-8021-61DEB5BFEF68}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11122,17 +11400,17 @@
           <xm:sqref>P36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal" id="{A3FC3665-DA53-5B46-8954-BDB50063822E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{66B0BC81-30EE-C647-97B7-55B10FD76E4A}">
+          <x14:cfRule type="cellIs" priority="259" stopIfTrue="1" operator="equal" id="{A3FC3665-DA53-5B46-8954-BDB50063822E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="260" operator="equal" id="{66B0BC81-30EE-C647-97B7-55B10FD76E4A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11145,17 +11423,17 @@
           <xm:sqref>Y117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="225" stopIfTrue="1" operator="equal" id="{E3CEE448-98E5-1B4C-BF0A-9B5F3F4E02F4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="226" operator="equal" id="{818D8602-580E-1841-ADC9-EFE47BD40388}">
+          <x14:cfRule type="cellIs" priority="257" stopIfTrue="1" operator="equal" id="{E3CEE448-98E5-1B4C-BF0A-9B5F3F4E02F4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="258" operator="equal" id="{818D8602-580E-1841-ADC9-EFE47BD40388}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11168,17 +11446,17 @@
           <xm:sqref>R18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal" id="{72210800-778B-4E47-BC13-044AC78AEF58}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{74A8F27B-00D7-8144-81DA-4B9178572124}">
+          <x14:cfRule type="cellIs" priority="255" stopIfTrue="1" operator="equal" id="{72210800-778B-4E47-BC13-044AC78AEF58}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="256" operator="equal" id="{74A8F27B-00D7-8144-81DA-4B9178572124}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11191,17 +11469,17 @@
           <xm:sqref>Q19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal" id="{B339A9C6-666D-3D4F-AC7C-711DC813D36F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{959B0C4E-EC58-2849-BADA-B628E3737758}">
+          <x14:cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal" id="{B339A9C6-666D-3D4F-AC7C-711DC813D36F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="254" operator="equal" id="{959B0C4E-EC58-2849-BADA-B628E3737758}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11214,17 +11492,17 @@
           <xm:sqref>Q84</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal" id="{9F98199F-DCF1-464A-8219-1DC656411C9E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="220" operator="equal" id="{B3B5E7AC-08F4-D448-8F14-C9A9E4E36E64}">
+          <x14:cfRule type="cellIs" priority="251" stopIfTrue="1" operator="equal" id="{9F98199F-DCF1-464A-8219-1DC656411C9E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="252" operator="equal" id="{B3B5E7AC-08F4-D448-8F14-C9A9E4E36E64}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11237,17 +11515,17 @@
           <xm:sqref>L48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal" id="{AA0A5D38-C1AC-C74B-BE09-21691DF27B93}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{22D35834-5606-6F48-9398-AC865858DD4E}">
+          <x14:cfRule type="cellIs" priority="249" stopIfTrue="1" operator="equal" id="{AA0A5D38-C1AC-C74B-BE09-21691DF27B93}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="250" operator="equal" id="{22D35834-5606-6F48-9398-AC865858DD4E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11260,17 +11538,17 @@
           <xm:sqref>L130</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal" id="{819CFCEA-8C11-EC40-89DD-52E631B9BB9A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{6CB0B701-08D3-1149-B851-A1D92F9BB898}">
+          <x14:cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal" id="{819CFCEA-8C11-EC40-89DD-52E631B9BB9A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="248" operator="equal" id="{6CB0B701-08D3-1149-B851-A1D92F9BB898}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11283,17 +11561,17 @@
           <xm:sqref>Y72</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal" id="{62EBBB2F-1269-9F4E-890A-60EE2B7B6BF2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{F733AE6E-261C-9441-BBE4-465942650E62}">
+          <x14:cfRule type="cellIs" priority="245" stopIfTrue="1" operator="equal" id="{62EBBB2F-1269-9F4E-890A-60EE2B7B6BF2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="246" operator="equal" id="{F733AE6E-261C-9441-BBE4-465942650E62}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11306,17 +11584,17 @@
           <xm:sqref>Y124</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal" id="{B30025E6-369C-C343-891D-FD122416AF35}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{2FE030E4-D028-1442-8B4F-C65890BF35E4}">
+          <x14:cfRule type="cellIs" priority="243" stopIfTrue="1" operator="equal" id="{B30025E6-369C-C343-891D-FD122416AF35}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="244" operator="equal" id="{2FE030E4-D028-1442-8B4F-C65890BF35E4}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11329,17 +11607,17 @@
           <xm:sqref>Y37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal" id="{CACA74CF-26A5-2A45-BEEE-7197AEA8BBCC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="210" operator="equal" id="{17A9A147-7F62-5B42-A0C5-CEE491E81F30}">
+          <x14:cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal" id="{CACA74CF-26A5-2A45-BEEE-7197AEA8BBCC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="242" operator="equal" id="{17A9A147-7F62-5B42-A0C5-CEE491E81F30}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11352,17 +11630,17 @@
           <xm:sqref>N93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal" id="{15FF22AE-C9A5-0346-9D81-93EB1A4B4FD9}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="208" operator="equal" id="{4D61668A-9DFC-064B-8DD3-F56FDECACDAB}">
+          <x14:cfRule type="cellIs" priority="239" stopIfTrue="1" operator="equal" id="{15FF22AE-C9A5-0346-9D81-93EB1A4B4FD9}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="240" operator="equal" id="{4D61668A-9DFC-064B-8DD3-F56FDECACDAB}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11375,17 +11653,17 @@
           <xm:sqref>K65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal" id="{2E5C1682-0FFD-8849-A51E-04025B84E57A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{1EB151A6-F577-2741-ABD2-326BAFAF6326}">
+          <x14:cfRule type="cellIs" priority="237" stopIfTrue="1" operator="equal" id="{2E5C1682-0FFD-8849-A51E-04025B84E57A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="238" operator="equal" id="{1EB151A6-F577-2741-ABD2-326BAFAF6326}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11398,17 +11676,17 @@
           <xm:sqref>K109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal" id="{1CE3FB13-74FD-8C4A-8145-EA88C5AB3F12}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="204" operator="equal" id="{65704A62-1753-5349-8D07-8D18068BE414}">
+          <x14:cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal" id="{1CE3FB13-74FD-8C4A-8145-EA88C5AB3F12}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="236" operator="equal" id="{65704A62-1753-5349-8D07-8D18068BE414}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11421,17 +11699,17 @@
           <xm:sqref>Y66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal" id="{5B4ED2A7-44D5-9544-9E87-90110F0AD2C8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{5B740E2F-B61C-2F42-8514-785975CB8ADF}">
+          <x14:cfRule type="cellIs" priority="233" stopIfTrue="1" operator="equal" id="{5B4ED2A7-44D5-9544-9E87-90110F0AD2C8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="234" operator="equal" id="{5B740E2F-B61C-2F42-8514-785975CB8ADF}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11444,17 +11722,17 @@
           <xm:sqref>Y131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal" id="{F3830CB7-8A98-9E41-98F5-A9B22291A7B5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{50462366-D9FB-0945-A594-E9E74C027A9A}">
+          <x14:cfRule type="cellIs" priority="231" stopIfTrue="1" operator="equal" id="{F3830CB7-8A98-9E41-98F5-A9B22291A7B5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="232" operator="equal" id="{50462366-D9FB-0945-A594-E9E74C027A9A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11467,17 +11745,17 @@
           <xm:sqref>P21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal" id="{7B547F13-83BA-8F47-BF78-B8F5459D4BF8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="198" operator="equal" id="{1A81E6C3-A4CE-3744-92BF-E3CD396C75F6}">
+          <x14:cfRule type="cellIs" priority="229" stopIfTrue="1" operator="equal" id="{7B547F13-83BA-8F47-BF78-B8F5459D4BF8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="230" operator="equal" id="{1A81E6C3-A4CE-3744-92BF-E3CD396C75F6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11490,17 +11768,17 @@
           <xm:sqref>P74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal" id="{BF6C6DB1-E03E-B440-ABB0-CE32CC045CF5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{A08FF02B-791E-FA48-9CBB-4CC8D7DF939D}">
+          <x14:cfRule type="cellIs" priority="227" stopIfTrue="1" operator="equal" id="{BF6C6DB1-E03E-B440-ABB0-CE32CC045CF5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="228" operator="equal" id="{A08FF02B-791E-FA48-9CBB-4CC8D7DF939D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11513,17 +11791,17 @@
           <xm:sqref>Z100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal" id="{3AAD7BB1-3F65-F644-B81C-4CC46D6330AC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{3D6159DD-13C6-3543-A7B1-EE41F81B6C0D}">
+          <x14:cfRule type="cellIs" priority="223" stopIfTrue="1" operator="equal" id="{3AAD7BB1-3F65-F644-B81C-4CC46D6330AC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="224" operator="equal" id="{3D6159DD-13C6-3543-A7B1-EE41F81B6C0D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11536,17 +11814,17 @@
           <xm:sqref>N15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal" id="{11A09B6B-7408-1940-ABF2-517C0E9907E2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{95FA9872-32FF-D345-8212-9AA6FA993076}">
+          <x14:cfRule type="cellIs" priority="221" stopIfTrue="1" operator="equal" id="{11A09B6B-7408-1940-ABF2-517C0E9907E2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="222" operator="equal" id="{95FA9872-32FF-D345-8212-9AA6FA993076}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11559,17 +11837,17 @@
           <xm:sqref>M15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal" id="{84675DA8-168C-164E-A0CD-0FA7CA738ACA}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="188" operator="equal" id="{1CC79898-2751-184E-9CBF-416DC83E3C38}">
+          <x14:cfRule type="cellIs" priority="219" stopIfTrue="1" operator="equal" id="{84675DA8-168C-164E-A0CD-0FA7CA738ACA}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="220" operator="equal" id="{1CC79898-2751-184E-9CBF-416DC83E3C38}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11582,17 +11860,17 @@
           <xm:sqref>L15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal" id="{1B880B5B-B24E-054C-B3F3-6276F2D1887B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{5EE56935-7A42-F44B-A89D-53304AD59B2B}">
+          <x14:cfRule type="cellIs" priority="217" stopIfTrue="1" operator="equal" id="{1B880B5B-B24E-054C-B3F3-6276F2D1887B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="218" operator="equal" id="{5EE56935-7A42-F44B-A89D-53304AD59B2B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11605,17 +11883,17 @@
           <xm:sqref>K15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal" id="{56FAA69C-B9F8-A14D-A021-476A0F04D7A2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{F63D641F-0E4F-D94A-9B83-4D512DAE1443}">
+          <x14:cfRule type="cellIs" priority="215" stopIfTrue="1" operator="equal" id="{56FAA69C-B9F8-A14D-A021-476A0F04D7A2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="216" operator="equal" id="{F63D641F-0E4F-D94A-9B83-4D512DAE1443}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11628,17 +11906,17 @@
           <xm:sqref>J15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal" id="{73F6A58E-2A7A-8340-A4D7-7C666AC1BF44}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{FD32663E-D253-EA48-8798-C1C9094C6DE9}">
+          <x14:cfRule type="cellIs" priority="213" stopIfTrue="1" operator="equal" id="{73F6A58E-2A7A-8340-A4D7-7C666AC1BF44}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="214" operator="equal" id="{FD32663E-D253-EA48-8798-C1C9094C6DE9}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11651,17 +11929,17 @@
           <xm:sqref>I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal" id="{8554ECD1-90AC-8445-96BF-FF2D448B7C00}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{0D0D4C03-F6B1-D84A-9099-52FF19FE3A32}">
+          <x14:cfRule type="cellIs" priority="211" stopIfTrue="1" operator="equal" id="{8554ECD1-90AC-8445-96BF-FF2D448B7C00}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="212" operator="equal" id="{0D0D4C03-F6B1-D84A-9099-52FF19FE3A32}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11674,17 +11952,17 @@
           <xm:sqref>X15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal" id="{9937AA5D-04BB-9643-AFAD-11CD2A4A0BD8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{61E36B3D-F0BC-2644-9DC5-5E6D2762696F}">
+          <x14:cfRule type="cellIs" priority="209" stopIfTrue="1" operator="equal" id="{9937AA5D-04BB-9643-AFAD-11CD2A4A0BD8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="210" operator="equal" id="{61E36B3D-F0BC-2644-9DC5-5E6D2762696F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11697,17 +11975,17 @@
           <xm:sqref>Y15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal" id="{DB08339E-3F55-3746-8290-A183E256D969}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="176" operator="equal" id="{8A06412B-F890-6440-91BF-1228E5844B52}">
+          <x14:cfRule type="cellIs" priority="207" stopIfTrue="1" operator="equal" id="{DB08339E-3F55-3746-8290-A183E256D969}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="208" operator="equal" id="{8A06412B-F890-6440-91BF-1228E5844B52}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11720,17 +11998,17 @@
           <xm:sqref>Z15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal" id="{80F4474E-E570-5C4A-B59E-84048B3333A7}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{DFA542F9-2D70-AE49-843C-E285FDD3222D}">
+          <x14:cfRule type="cellIs" priority="205" stopIfTrue="1" operator="equal" id="{80F4474E-E570-5C4A-B59E-84048B3333A7}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="206" operator="equal" id="{DFA542F9-2D70-AE49-843C-E285FDD3222D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11743,17 +12021,17 @@
           <xm:sqref>O49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal" id="{29A4E069-CE5D-AC48-9915-D6C9F769EC8A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{55E98EDB-49D2-B44F-8C6E-AEE705D2EB6A}">
+          <x14:cfRule type="cellIs" priority="203" stopIfTrue="1" operator="equal" id="{29A4E069-CE5D-AC48-9915-D6C9F769EC8A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="204" operator="equal" id="{55E98EDB-49D2-B44F-8C6E-AEE705D2EB6A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11766,17 +12044,17 @@
           <xm:sqref>M146</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal" id="{3A874DAA-5C80-F141-9EDC-4D4A67A6CF9E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{1A44D21E-E7C7-1A42-BA61-668D21662AD6}">
+          <x14:cfRule type="cellIs" priority="201" stopIfTrue="1" operator="equal" id="{3A874DAA-5C80-F141-9EDC-4D4A67A6CF9E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="202" operator="equal" id="{1A44D21E-E7C7-1A42-BA61-668D21662AD6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11789,17 +12067,17 @@
           <xm:sqref>I11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal" id="{C22E5D0F-BB69-2646-98D0-BC6E66E8239B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{459D7B58-5D7D-3641-9849-55A0BE56D1A2}">
+          <x14:cfRule type="cellIs" priority="199" stopIfTrue="1" operator="equal" id="{C22E5D0F-BB69-2646-98D0-BC6E66E8239B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="200" operator="equal" id="{459D7B58-5D7D-3641-9849-55A0BE56D1A2}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11812,17 +12090,17 @@
           <xm:sqref>K11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal" id="{A85767D0-6924-3E4A-A503-3398568117E7}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="166" operator="equal" id="{07E699E6-FB0C-D448-BD97-575188BC6F2B}">
+          <x14:cfRule type="cellIs" priority="197" stopIfTrue="1" operator="equal" id="{A85767D0-6924-3E4A-A503-3398568117E7}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="198" operator="equal" id="{07E699E6-FB0C-D448-BD97-575188BC6F2B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11835,17 +12113,17 @@
           <xm:sqref>M11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal" id="{E1FCDDE5-870B-1746-A952-FC26688B0E72}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="164" operator="equal" id="{1AFE7E1A-9CE3-7F49-A515-FF06B2C1AD1C}">
+          <x14:cfRule type="cellIs" priority="195" stopIfTrue="1" operator="equal" id="{E1FCDDE5-870B-1746-A952-FC26688B0E72}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="196" operator="equal" id="{1AFE7E1A-9CE3-7F49-A515-FF06B2C1AD1C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11858,17 +12136,17 @@
           <xm:sqref>O11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal" id="{443D6608-79BA-B54C-8F37-518D072DF0DC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{F15C319E-575D-234D-9A37-6ADCFE8A93E1}">
+          <x14:cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal" id="{443D6608-79BA-B54C-8F37-518D072DF0DC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="194" operator="equal" id="{F15C319E-575D-234D-9A37-6ADCFE8A93E1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11881,17 +12159,17 @@
           <xm:sqref>R11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal" id="{A397DAD8-B247-E944-87E8-19375090C507}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{9C3204C0-AD53-F940-B869-C5FB3547D101}">
+          <x14:cfRule type="cellIs" priority="191" stopIfTrue="1" operator="equal" id="{A397DAD8-B247-E944-87E8-19375090C507}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="192" operator="equal" id="{9C3204C0-AD53-F940-B869-C5FB3547D101}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11904,17 +12182,17 @@
           <xm:sqref>U11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal" id="{5DB7AA61-957D-4B46-A43C-B40D5A921834}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{7A09A593-DDAF-8145-A9DD-37A81AA0BC51}">
+          <x14:cfRule type="cellIs" priority="189" stopIfTrue="1" operator="equal" id="{5DB7AA61-957D-4B46-A43C-B40D5A921834}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="190" operator="equal" id="{7A09A593-DDAF-8145-A9DD-37A81AA0BC51}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11927,17 +12205,17 @@
           <xm:sqref>W11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal" id="{B7D0ACF3-BEBE-2148-8115-3E66A685E649}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{63C2D570-4AA1-574F-A583-D7B8394FF90D}">
+          <x14:cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal" id="{B7D0ACF3-BEBE-2148-8115-3E66A685E649}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="188" operator="equal" id="{63C2D570-4AA1-574F-A583-D7B8394FF90D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11950,17 +12228,17 @@
           <xm:sqref>Y11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal" id="{A76C5295-2DF9-B449-9B5C-D330D4B946BC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{6B9DE860-4AAB-7343-81C9-CAF2229FAE3B}">
+          <x14:cfRule type="cellIs" priority="185" stopIfTrue="1" operator="equal" id="{A76C5295-2DF9-B449-9B5C-D330D4B946BC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="186" operator="equal" id="{6B9DE860-4AAB-7343-81C9-CAF2229FAE3B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11973,17 +12251,17 @@
           <xm:sqref>I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal" id="{AF50036A-62FB-874F-970D-FD0D1D221290}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{6AF2DE7D-765A-EE41-8962-C1D391F1D776}">
+          <x14:cfRule type="cellIs" priority="183" stopIfTrue="1" operator="equal" id="{AF50036A-62FB-874F-970D-FD0D1D221290}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="184" operator="equal" id="{6AF2DE7D-765A-EE41-8962-C1D391F1D776}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -11996,17 +12274,17 @@
           <xm:sqref>K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal" id="{591EC028-1138-2A49-B1B4-2C19C637111B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{5635030D-5268-5E4B-88B1-E80C03F581FE}">
+          <x14:cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal" id="{591EC028-1138-2A49-B1B4-2C19C637111B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="182" operator="equal" id="{5635030D-5268-5E4B-88B1-E80C03F581FE}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12019,17 +12297,17 @@
           <xm:sqref>M16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal" id="{BA711632-2BFC-3A43-A83B-E4FBA24F6BDB}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{5A083B92-BE3F-A945-982D-BB74A15875A5}">
+          <x14:cfRule type="cellIs" priority="179" stopIfTrue="1" operator="equal" id="{BA711632-2BFC-3A43-A83B-E4FBA24F6BDB}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="180" operator="equal" id="{5A083B92-BE3F-A945-982D-BB74A15875A5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12042,17 +12320,17 @@
           <xm:sqref>O16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal" id="{82ABE884-A50D-2443-85A8-4A1373E2B535}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{73C4416D-BB71-AE4E-8DE8-B7189DD479D5}">
+          <x14:cfRule type="cellIs" priority="177" stopIfTrue="1" operator="equal" id="{82ABE884-A50D-2443-85A8-4A1373E2B535}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="178" operator="equal" id="{73C4416D-BB71-AE4E-8DE8-B7189DD479D5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12065,17 +12343,17 @@
           <xm:sqref>Q16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal" id="{E3AD4545-0C99-1140-8935-6A2856B50191}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="144" operator="equal" id="{9F4884DC-B568-4147-B659-DE4483CD2735}">
+          <x14:cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal" id="{E3AD4545-0C99-1140-8935-6A2856B50191}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="176" operator="equal" id="{9F4884DC-B568-4147-B659-DE4483CD2735}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12088,17 +12366,17 @@
           <xm:sqref>S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal" id="{A97B6929-74CB-AC4B-9DD1-3957B536B8BC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="142" operator="equal" id="{C6ED29D2-9C84-3C45-9084-6B3ADA85E15C}">
+          <x14:cfRule type="cellIs" priority="173" stopIfTrue="1" operator="equal" id="{A97B6929-74CB-AC4B-9DD1-3957B536B8BC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="174" operator="equal" id="{C6ED29D2-9C84-3C45-9084-6B3ADA85E15C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12111,17 +12389,17 @@
           <xm:sqref>U16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal" id="{8FDE38C2-0BCC-1E4E-B04D-AC60A9C5396E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{F5B6D08D-4E41-EF4E-9753-635A1EBD5880}">
+          <x14:cfRule type="cellIs" priority="171" stopIfTrue="1" operator="equal" id="{8FDE38C2-0BCC-1E4E-B04D-AC60A9C5396E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="172" operator="equal" id="{F5B6D08D-4E41-EF4E-9753-635A1EBD5880}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12134,17 +12412,17 @@
           <xm:sqref>W16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal" id="{1630E309-0F4C-F94B-A8D3-007D27D9804E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{351C756C-D919-4840-97A0-F4C15F107923}">
+          <x14:cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal" id="{1630E309-0F4C-F94B-A8D3-007D27D9804E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="170" operator="equal" id="{351C756C-D919-4840-97A0-F4C15F107923}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12157,17 +12435,17 @@
           <xm:sqref>Y16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal" id="{BBA84142-CA20-B748-AE74-3DB8E98BDC18}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{80F2D0E7-4489-4341-807E-06ADEA110A86}">
+          <x14:cfRule type="cellIs" priority="167" stopIfTrue="1" operator="equal" id="{BBA84142-CA20-B748-AE74-3DB8E98BDC18}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="168" operator="equal" id="{80F2D0E7-4489-4341-807E-06ADEA110A86}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12180,17 +12458,17 @@
           <xm:sqref>J14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal" id="{C25DC8FD-65D4-F843-B21A-D7702A1DE8D3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{27C02F55-9BB2-B24A-A9DA-3D8A08EED190}">
+          <x14:cfRule type="cellIs" priority="165" stopIfTrue="1" operator="equal" id="{C25DC8FD-65D4-F843-B21A-D7702A1DE8D3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="166" operator="equal" id="{27C02F55-9BB2-B24A-A9DA-3D8A08EED190}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12203,17 +12481,17 @@
           <xm:sqref>K14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal" id="{8984D88F-1809-E143-8E3E-9C69398C6E96}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{FEB1AA81-1F1E-3248-A48C-F966C4C6B1A0}">
+          <x14:cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal" id="{8984D88F-1809-E143-8E3E-9C69398C6E96}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="164" operator="equal" id="{FEB1AA81-1F1E-3248-A48C-F966C4C6B1A0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12226,17 +12504,17 @@
           <xm:sqref>N14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal" id="{ABAB7DF5-EEF4-F945-9B89-B33DD12CF3B0}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{47C2562F-91D3-C74C-A1B4-9256C26B7656}">
+          <x14:cfRule type="cellIs" priority="161" stopIfTrue="1" operator="equal" id="{ABAB7DF5-EEF4-F945-9B89-B33DD12CF3B0}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="162" operator="equal" id="{47C2562F-91D3-C74C-A1B4-9256C26B7656}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12249,17 +12527,17 @@
           <xm:sqref>P14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal" id="{8F2518C2-9864-2E41-A363-7D9CB3EB3847}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{A467C97A-038A-CB4E-8817-19FFF25067CC}">
+          <x14:cfRule type="cellIs" priority="159" stopIfTrue="1" operator="equal" id="{8F2518C2-9864-2E41-A363-7D9CB3EB3847}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="160" operator="equal" id="{A467C97A-038A-CB4E-8817-19FFF25067CC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12272,17 +12550,17 @@
           <xm:sqref>R14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal" id="{FD498E55-A88F-0F44-8D21-7CEB5E30F053}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{40ECC659-771E-E146-97A2-E90BD8469493}">
+          <x14:cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal" id="{FD498E55-A88F-0F44-8D21-7CEB5E30F053}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="158" operator="equal" id="{40ECC659-771E-E146-97A2-E90BD8469493}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12295,17 +12573,17 @@
           <xm:sqref>U14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal" id="{58CE497F-E892-0D46-BE08-521B2F74AAAB}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{209AC5B1-95B8-1649-8CD4-08A4083A9BF5}">
+          <x14:cfRule type="cellIs" priority="155" stopIfTrue="1" operator="equal" id="{58CE497F-E892-0D46-BE08-521B2F74AAAB}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="156" operator="equal" id="{209AC5B1-95B8-1649-8CD4-08A4083A9BF5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12318,17 +12596,17 @@
           <xm:sqref>X14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal" id="{ABE33FDE-0358-1D4B-84D0-76F4B1475CFB}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="122" operator="equal" id="{BDCAF77B-64F7-784E-9B1E-6BDEBED3C86D}">
+          <x14:cfRule type="cellIs" priority="153" stopIfTrue="1" operator="equal" id="{ABE33FDE-0358-1D4B-84D0-76F4B1475CFB}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="154" operator="equal" id="{BDCAF77B-64F7-784E-9B1E-6BDEBED3C86D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12341,17 +12619,17 @@
           <xm:sqref>Y14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal" id="{8E8025F4-09BB-E34E-B8D0-202B0D38E864}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="120" operator="equal" id="{C5D44E93-1CD7-4145-8733-D994A7727F6E}">
+          <x14:cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal" id="{8E8025F4-09BB-E34E-B8D0-202B0D38E864}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="152" operator="equal" id="{C5D44E93-1CD7-4145-8733-D994A7727F6E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12364,17 +12642,17 @@
           <xm:sqref>Z14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal" id="{79EB985C-5C62-FA49-8796-26975D36F690}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{26130AF0-FC0C-2F44-86C0-D08F9F362CBF}">
+          <x14:cfRule type="cellIs" priority="149" stopIfTrue="1" operator="equal" id="{79EB985C-5C62-FA49-8796-26975D36F690}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="150" operator="equal" id="{26130AF0-FC0C-2F44-86C0-D08F9F362CBF}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12387,17 +12665,17 @@
           <xm:sqref>I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal" id="{EA522EDE-A5CE-CA46-9C8F-EAA85D782D7B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{FCAB5F4F-BE55-A34D-8A70-6DDD80CAEB6A}">
+          <x14:cfRule type="cellIs" priority="147" stopIfTrue="1" operator="equal" id="{EA522EDE-A5CE-CA46-9C8F-EAA85D782D7B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="148" operator="equal" id="{FCAB5F4F-BE55-A34D-8A70-6DDD80CAEB6A}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12410,17 +12688,17 @@
           <xm:sqref>K37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal" id="{B44192A2-336C-0A47-9562-87E99BA6D9C3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{86ACDC74-8297-C54D-B48C-B1126A61BCF0}">
+          <x14:cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal" id="{B44192A2-336C-0A47-9562-87E99BA6D9C3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="146" operator="equal" id="{86ACDC74-8297-C54D-B48C-B1126A61BCF0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12433,17 +12711,17 @@
           <xm:sqref>M37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal" id="{874FFDFC-23FC-B249-B624-E9992049BF2F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{F1D15724-5BC2-134A-856D-5EA401F6000B}">
+          <x14:cfRule type="cellIs" priority="143" stopIfTrue="1" operator="equal" id="{874FFDFC-23FC-B249-B624-E9992049BF2F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="144" operator="equal" id="{F1D15724-5BC2-134A-856D-5EA401F6000B}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12456,17 +12734,17 @@
           <xm:sqref>N37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal" id="{62B14CEC-9004-9949-8D99-67E958E7A0EC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{AB56CE78-8420-C84D-B8B6-A1679156BC64}">
+          <x14:cfRule type="cellIs" priority="141" stopIfTrue="1" operator="equal" id="{62B14CEC-9004-9949-8D99-67E958E7A0EC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="142" operator="equal" id="{AB56CE78-8420-C84D-B8B6-A1679156BC64}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12479,17 +12757,17 @@
           <xm:sqref>Q37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal" id="{EA8BB577-F0C8-6D4C-A30C-CD4F03BE7B84}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{40F7DCB3-D806-E24A-8D05-6D561AB5B799}">
+          <x14:cfRule type="cellIs" priority="139" stopIfTrue="1" operator="equal" id="{EA8BB577-F0C8-6D4C-A30C-CD4F03BE7B84}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="140" operator="equal" id="{40F7DCB3-D806-E24A-8D05-6D561AB5B799}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12502,17 +12780,17 @@
           <xm:sqref>U37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal" id="{B175AEB4-C0A6-6843-9293-681D0EB72801}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{6A74D86C-ED8F-C149-BFAA-8C5BBC581A67}">
+          <x14:cfRule type="cellIs" priority="137" stopIfTrue="1" operator="equal" id="{B175AEB4-C0A6-6843-9293-681D0EB72801}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="138" operator="equal" id="{6A74D86C-ED8F-C149-BFAA-8C5BBC581A67}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12525,17 +12803,17 @@
           <xm:sqref>W37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{C3203E62-F43A-7E43-B59D-7C23C11A0E91}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{C4EAF8EF-9F81-A74D-8590-CC0665E64728}">
+          <x14:cfRule type="cellIs" priority="135" stopIfTrue="1" operator="equal" id="{C3203E62-F43A-7E43-B59D-7C23C11A0E91}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="136" operator="equal" id="{C4EAF8EF-9F81-A74D-8590-CC0665E64728}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12548,17 +12826,17 @@
           <xm:sqref>I13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{6B5A886E-580F-F148-904A-D413F9B212D3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{F86E7555-05D7-7244-A194-65EDD9DC7615}">
+          <x14:cfRule type="cellIs" priority="133" stopIfTrue="1" operator="equal" id="{6B5A886E-580F-F148-904A-D413F9B212D3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="134" operator="equal" id="{F86E7555-05D7-7244-A194-65EDD9DC7615}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12571,17 +12849,17 @@
           <xm:sqref>K13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{1A72E73E-295E-BD4C-A186-C1BFB425D6F2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="100" operator="equal" id="{55D8739E-96CF-2440-BB15-C6423A296734}">
+          <x14:cfRule type="cellIs" priority="131" stopIfTrue="1" operator="equal" id="{1A72E73E-295E-BD4C-A186-C1BFB425D6F2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="132" operator="equal" id="{55D8739E-96CF-2440-BB15-C6423A296734}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12594,17 +12872,17 @@
           <xm:sqref>L13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{204356AF-31AF-4543-946E-8754B6BE179B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="98" operator="equal" id="{7C090A21-6AAC-2842-923D-119B99D5C261}">
+          <x14:cfRule type="cellIs" priority="129" stopIfTrue="1" operator="equal" id="{204356AF-31AF-4543-946E-8754B6BE179B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="130" operator="equal" id="{7C090A21-6AAC-2842-923D-119B99D5C261}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12617,17 +12895,17 @@
           <xm:sqref>O13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{5FFEC558-1121-CE46-AF0D-AAB6C0253FF2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{5EBEB287-E067-6A4E-A029-C91EED7816D0}">
+          <x14:cfRule type="cellIs" priority="127" stopIfTrue="1" operator="equal" id="{5FFEC558-1121-CE46-AF0D-AAB6C0253FF2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="128" operator="equal" id="{5EBEB287-E067-6A4E-A029-C91EED7816D0}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12640,17 +12918,17 @@
           <xm:sqref>S13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{4E996AB3-FAC1-8D49-B9A7-85352D639D4E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{2CB52B07-D07B-D74D-A868-3838C6BD43A1}">
+          <x14:cfRule type="cellIs" priority="125" stopIfTrue="1" operator="equal" id="{4E996AB3-FAC1-8D49-B9A7-85352D639D4E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="126" operator="equal" id="{2CB52B07-D07B-D74D-A868-3838C6BD43A1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12663,17 +12941,17 @@
           <xm:sqref>U13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{CF04A0F3-E406-8140-91AB-9E1EA10465D9}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{923D23EE-07B1-7F4C-9E98-03FBCB95B190}">
+          <x14:cfRule type="cellIs" priority="123" stopIfTrue="1" operator="equal" id="{CF04A0F3-E406-8140-91AB-9E1EA10465D9}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="124" operator="equal" id="{923D23EE-07B1-7F4C-9E98-03FBCB95B190}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12686,17 +12964,17 @@
           <xm:sqref>X13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{833C0BC8-BA7C-6C46-9EB8-E0C92BE6E559}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{94D33719-5F66-B140-BAA1-DECDC2465E66}">
+          <x14:cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal" id="{833C0BC8-BA7C-6C46-9EB8-E0C92BE6E559}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="122" operator="equal" id="{94D33719-5F66-B140-BAA1-DECDC2465E66}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12709,17 +12987,17 @@
           <xm:sqref>Z13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{61206738-A906-D942-974D-5CDF882D8F2A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{1A9E13A0-4A6B-8941-88D0-8EF657731FA1}">
+          <x14:cfRule type="cellIs" priority="119" stopIfTrue="1" operator="equal" id="{61206738-A906-D942-974D-5CDF882D8F2A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="120" operator="equal" id="{1A9E13A0-4A6B-8941-88D0-8EF657731FA1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12732,17 +13010,17 @@
           <xm:sqref>J41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{DCA4C353-A7BA-A04A-8DE3-AE22E3A97736}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{DA7A25ED-763E-3748-9E1E-D4A39053E396}">
+          <x14:cfRule type="cellIs" priority="117" stopIfTrue="1" operator="equal" id="{DCA4C353-A7BA-A04A-8DE3-AE22E3A97736}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="118" operator="equal" id="{DA7A25ED-763E-3748-9E1E-D4A39053E396}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12755,17 +13033,17 @@
           <xm:sqref>L41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{714ABB6C-20D1-3B48-84ED-64F750EEEB6A}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{6F62F506-B9A5-F34C-8709-6706083D9D46}">
+          <x14:cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal" id="{714ABB6C-20D1-3B48-84ED-64F750EEEB6A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="116" operator="equal" id="{6F62F506-B9A5-F34C-8709-6706083D9D46}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12778,17 +13056,17 @@
           <xm:sqref>M41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{E6418627-D3B6-8645-B44E-1A94CA3C8BC1}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{5D2EDE57-8BEF-1B45-A78D-781FAB88EF24}">
+          <x14:cfRule type="cellIs" priority="113" stopIfTrue="1" operator="equal" id="{E6418627-D3B6-8645-B44E-1A94CA3C8BC1}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="114" operator="equal" id="{5D2EDE57-8BEF-1B45-A78D-781FAB88EF24}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12801,17 +13079,17 @@
           <xm:sqref>O41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{86C0AE62-BD5D-5540-A810-B2DDB696F5A6}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{375C430B-1890-D94D-8C99-1092BE3059BD}">
+          <x14:cfRule type="cellIs" priority="111" stopIfTrue="1" operator="equal" id="{86C0AE62-BD5D-5540-A810-B2DDB696F5A6}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="112" operator="equal" id="{375C430B-1890-D94D-8C99-1092BE3059BD}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12824,17 +13102,17 @@
           <xm:sqref>P41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{EE2DAABF-BA70-D140-8516-DE85A5EBE01C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{B23E1A91-0E9A-D244-A1EA-A0EF2FBFDA6F}">
+          <x14:cfRule type="cellIs" priority="109" stopIfTrue="1" operator="equal" id="{EE2DAABF-BA70-D140-8516-DE85A5EBE01C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="110" operator="equal" id="{B23E1A91-0E9A-D244-A1EA-A0EF2FBFDA6F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12847,17 +13125,17 @@
           <xm:sqref>R41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{03A01468-42AF-A145-8F6B-41BD50E97275}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{0F04DA3A-1C9D-FC45-A5F8-A48677E4BADC}">
+          <x14:cfRule type="cellIs" priority="107" stopIfTrue="1" operator="equal" id="{03A01468-42AF-A145-8F6B-41BD50E97275}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="108" operator="equal" id="{0F04DA3A-1C9D-FC45-A5F8-A48677E4BADC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12870,17 +13148,17 @@
           <xm:sqref>T41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{D9522740-CD89-794C-8352-344DC65A7EF3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{0B680AAD-9CE0-D141-8CE4-3A8C7417F6B5}">
+          <x14:cfRule type="cellIs" priority="105" stopIfTrue="1" operator="equal" id="{D9522740-CD89-794C-8352-344DC65A7EF3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="106" operator="equal" id="{0B680AAD-9CE0-D141-8CE4-3A8C7417F6B5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12893,17 +13171,17 @@
           <xm:sqref>U41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{A988ACF5-3A6C-F446-9A45-27FF20FE54D8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{C4DF488E-11A6-294E-830F-2DB8FC5ED291}">
+          <x14:cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal" id="{A988ACF5-3A6C-F446-9A45-27FF20FE54D8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="104" operator="equal" id="{C4DF488E-11A6-294E-830F-2DB8FC5ED291}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12916,17 +13194,17 @@
           <xm:sqref>K67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{CD0CDCED-2817-1841-8B6B-59729837FE22}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{A6719EEC-DFE2-D444-BBD2-1393B7EE5C4E}">
+          <x14:cfRule type="cellIs" priority="101" stopIfTrue="1" operator="equal" id="{CD0CDCED-2817-1841-8B6B-59729837FE22}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="102" operator="equal" id="{A6719EEC-DFE2-D444-BBD2-1393B7EE5C4E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12939,17 +13217,17 @@
           <xm:sqref>N67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{303F0182-1A80-FF4A-9B05-ECFE49CBA3BC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{9A467577-0374-6249-9150-599B3DB13AB5}">
+          <x14:cfRule type="cellIs" priority="99" stopIfTrue="1" operator="equal" id="{303F0182-1A80-FF4A-9B05-ECFE49CBA3BC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="100" operator="equal" id="{9A467577-0374-6249-9150-599B3DB13AB5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12962,17 +13240,17 @@
           <xm:sqref>O67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{FB7DAF59-CDF1-0F46-97C5-2BF84FC5C668}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{B61B11C5-C62B-7345-985F-472D40595EED}">
+          <x14:cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal" id="{FB7DAF59-CDF1-0F46-97C5-2BF84FC5C668}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="98" operator="equal" id="{B61B11C5-C62B-7345-985F-472D40595EED}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -12985,17 +13263,17 @@
           <xm:sqref>Q67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{B59DD66C-AB3C-CB42-9F09-74576444AA77}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{E5DD8DB4-0033-DC4A-A62D-8C069E843BBC}">
+          <x14:cfRule type="cellIs" priority="95" stopIfTrue="1" operator="equal" id="{B59DD66C-AB3C-CB42-9F09-74576444AA77}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="96" operator="equal" id="{E5DD8DB4-0033-DC4A-A62D-8C069E843BBC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13008,17 +13286,17 @@
           <xm:sqref>S67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{D5FBD6E4-D607-8644-8709-EE5540241951}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{30B5E45B-2913-FB49-ADCB-04FF3D6F99B1}">
+          <x14:cfRule type="cellIs" priority="93" stopIfTrue="1" operator="equal" id="{D5FBD6E4-D607-8644-8709-EE5540241951}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="94" operator="equal" id="{30B5E45B-2913-FB49-ADCB-04FF3D6F99B1}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13031,17 +13309,17 @@
           <xm:sqref>U67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{23B14C99-E044-0546-A05B-8DDFD1A6445B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{21D69A42-1B53-0B44-A98E-2EB19DBB0E21}">
+          <x14:cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal" id="{23B14C99-E044-0546-A05B-8DDFD1A6445B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="92" operator="equal" id="{21D69A42-1B53-0B44-A98E-2EB19DBB0E21}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13054,17 +13332,17 @@
           <xm:sqref>V67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{870D1A61-6366-4F4B-BBD9-6503CAE67D09}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{D853CA65-4061-5C4A-8FC1-491E7AC4E240}">
+          <x14:cfRule type="cellIs" priority="89" stopIfTrue="1" operator="equal" id="{870D1A61-6366-4F4B-BBD9-6503CAE67D09}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="90" operator="equal" id="{D853CA65-4061-5C4A-8FC1-491E7AC4E240}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13077,17 +13355,17 @@
           <xm:sqref>Y67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{68AFC342-05D6-2B4B-B37D-E904A940ADE3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{CED18387-5A71-7F45-9E23-7DED98966C6C}">
+          <x14:cfRule type="cellIs" priority="87" stopIfTrue="1" operator="equal" id="{68AFC342-05D6-2B4B-B37D-E904A940ADE3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="88" operator="equal" id="{CED18387-5A71-7F45-9E23-7DED98966C6C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13100,17 +13378,17 @@
           <xm:sqref>Z67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{636DC6C9-5888-7346-A856-AFB947356337}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{7A5BF301-89F4-0446-8FFA-4B07B5A2B8CF}">
+          <x14:cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal" id="{636DC6C9-5888-7346-A856-AFB947356337}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="86" operator="equal" id="{7A5BF301-89F4-0446-8FFA-4B07B5A2B8CF}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13123,17 +13401,17 @@
           <xm:sqref>J36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{BDD74126-2720-0445-B287-95F61519504F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{519C7945-5AAA-5C4F-A365-26D353E7F09E}">
+          <x14:cfRule type="cellIs" priority="83" stopIfTrue="1" operator="equal" id="{BDD74126-2720-0445-B287-95F61519504F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="84" operator="equal" id="{519C7945-5AAA-5C4F-A365-26D353E7F09E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13146,17 +13424,17 @@
           <xm:sqref>K66</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{54EF92D1-77B7-FC43-B58B-C971EB5EC3F7}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{F757D89A-0B6D-0D45-AB04-1FF33FC3A61E}">
+          <x14:cfRule type="cellIs" priority="81" stopIfTrue="1" operator="equal" id="{54EF92D1-77B7-FC43-B58B-C971EB5EC3F7}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="82" operator="equal" id="{F757D89A-0B6D-0D45-AB04-1FF33FC3A61E}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13169,17 +13447,17 @@
           <xm:sqref>K36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{6046DAC0-5775-0945-A5AF-86C871B6A3D4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{5D571056-A3F4-2143-A352-9AAF1282CE54}">
+          <x14:cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal" id="{6046DAC0-5775-0945-A5AF-86C871B6A3D4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="80" operator="equal" id="{5D571056-A3F4-2143-A352-9AAF1282CE54}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13192,17 +13470,17 @@
           <xm:sqref>M36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{CF0F96FD-A761-A344-8493-F3C63929161F}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{0C710D17-F321-EF4B-9992-5FDFF9E362EA}">
+          <x14:cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal" id="{CF0F96FD-A761-A344-8493-F3C63929161F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="78" operator="equal" id="{0C710D17-F321-EF4B-9992-5FDFF9E362EA}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13215,17 +13493,17 @@
           <xm:sqref>O36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{191EA18D-4316-B046-AB26-BD0713761E81}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{12F696A6-6838-994A-86AC-745B4201A05F}">
+          <x14:cfRule type="cellIs" priority="75" stopIfTrue="1" operator="equal" id="{191EA18D-4316-B046-AB26-BD0713761E81}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="76" operator="equal" id="{12F696A6-6838-994A-86AC-745B4201A05F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13238,17 +13516,17 @@
           <xm:sqref>Q36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{9A73B02E-4628-7549-8AB6-7FD46EDB3CD8}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{59DE6899-3B1F-9A4F-835B-A57FFEF61F92}">
+          <x14:cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal" id="{9A73B02E-4628-7549-8AB6-7FD46EDB3CD8}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="74" operator="equal" id="{59DE6899-3B1F-9A4F-835B-A57FFEF61F92}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13261,17 +13539,17 @@
           <xm:sqref>R36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{BD421C2C-FBD4-B64E-A2E5-A3764ABAFBE5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{EC7AE51B-5388-1449-82E6-5E71442DBEAC}">
+          <x14:cfRule type="cellIs" priority="71" stopIfTrue="1" operator="equal" id="{BD421C2C-FBD4-B64E-A2E5-A3764ABAFBE5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="72" operator="equal" id="{EC7AE51B-5388-1449-82E6-5E71442DBEAC}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13284,17 +13562,17 @@
           <xm:sqref>U36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{40945B70-C482-0045-AFDC-235F3D470716}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{1214CB11-6456-2A45-8FF1-A18C3ACBBFD7}">
+          <x14:cfRule type="cellIs" priority="69" stopIfTrue="1" operator="equal" id="{40945B70-C482-0045-AFDC-235F3D470716}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{1214CB11-6456-2A45-8FF1-A18C3ACBBFD7}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13307,17 +13585,17 @@
           <xm:sqref>V36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{A33AAC93-FB50-BE4B-8DC6-C2EF17185140}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{8749F9F8-3A51-F348-86E0-2F29E09777F4}">
+          <x14:cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal" id="{A33AAC93-FB50-BE4B-8DC6-C2EF17185140}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{8749F9F8-3A51-F348-86E0-2F29E09777F4}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13330,17 +13608,17 @@
           <xm:sqref>W36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{12E1241D-D268-E149-BA83-136F9C6257C5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{74121321-7D9A-F745-850E-9E6413D7DA52}">
+          <x14:cfRule type="cellIs" priority="65" stopIfTrue="1" operator="equal" id="{12E1241D-D268-E149-BA83-136F9C6257C5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{74121321-7D9A-F745-850E-9E6413D7DA52}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13353,17 +13631,17 @@
           <xm:sqref>I55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="31" stopIfTrue="1" operator="equal" id="{13402A03-5F39-6B4C-B971-2B9DD466D6A2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{2CCCEDF6-741E-3741-9533-61738E590CF5}">
+          <x14:cfRule type="cellIs" priority="63" stopIfTrue="1" operator="equal" id="{13402A03-5F39-6B4C-B971-2B9DD466D6A2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="64" operator="equal" id="{2CCCEDF6-741E-3741-9533-61738E590CF5}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13376,17 +13654,17 @@
           <xm:sqref>K55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal" id="{E57448F3-2BA1-EA4E-9CAA-EB8E46968DF2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{23A18572-63E8-024F-ACC5-8C83F3B1B537}">
+          <x14:cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal" id="{E57448F3-2BA1-EA4E-9CAA-EB8E46968DF2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="62" operator="equal" id="{23A18572-63E8-024F-ACC5-8C83F3B1B537}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13399,17 +13677,17 @@
           <xm:sqref>M55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal" id="{38E66480-A4F1-8A4B-931F-4DA5F7759BE5}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{3D82F6A9-5A41-7742-B689-C4320D2AD17D}">
+          <x14:cfRule type="cellIs" priority="59" stopIfTrue="1" operator="equal" id="{38E66480-A4F1-8A4B-931F-4DA5F7759BE5}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="60" operator="equal" id="{3D82F6A9-5A41-7742-B689-C4320D2AD17D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13422,17 +13700,17 @@
           <xm:sqref>N55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="25" stopIfTrue="1" operator="equal" id="{1EE7B76A-929B-3841-AEB3-20EDA4362286}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{32DBECF1-F51C-994B-8ADA-CC66948987D6}">
+          <x14:cfRule type="cellIs" priority="57" stopIfTrue="1" operator="equal" id="{1EE7B76A-929B-3841-AEB3-20EDA4362286}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="58" operator="equal" id="{32DBECF1-F51C-994B-8ADA-CC66948987D6}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13445,17 +13723,17 @@
           <xm:sqref>P55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{E73E007D-E47C-2144-992D-02377F3FE676}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{76EA4D69-A89F-B54B-B498-718BDE0562CD}">
+          <x14:cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal" id="{E73E007D-E47C-2144-992D-02377F3FE676}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="56" operator="equal" id="{76EA4D69-A89F-B54B-B498-718BDE0562CD}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13468,17 +13746,17 @@
           <xm:sqref>S55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="21" stopIfTrue="1" operator="equal" id="{C3747B49-62DE-EA49-BE1E-0D541AFCD9CC}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{8119AA82-E457-1A43-BE69-F61E09ADA110}">
+          <x14:cfRule type="cellIs" priority="53" stopIfTrue="1" operator="equal" id="{C3747B49-62DE-EA49-BE1E-0D541AFCD9CC}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{8119AA82-E457-1A43-BE69-F61E09ADA110}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13491,17 +13769,17 @@
           <xm:sqref>V55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal" id="{C00F7112-3373-E041-A1E2-703F9D1816C2}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{448CB61D-F2B6-944C-B624-02244C2FD511}">
+          <x14:cfRule type="cellIs" priority="51" stopIfTrue="1" operator="equal" id="{C00F7112-3373-E041-A1E2-703F9D1816C2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{448CB61D-F2B6-944C-B624-02244C2FD511}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13514,17 +13792,17 @@
           <xm:sqref>Z55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal" id="{C0F0F93B-16AB-5C41-BF11-673B262A61C4}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="equal" id="{F71F45E7-F3F3-EE4D-B35F-9A0D2C415A59}">
+          <x14:cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal" id="{C0F0F93B-16AB-5C41-BF11-673B262A61C4}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{F71F45E7-F3F3-EE4D-B35F-9A0D2C415A59}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13537,17 +13815,17 @@
           <xm:sqref>I18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{AA12353A-2D03-1843-845F-263141E4634B}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{4ABE9637-38A8-F54B-ACBB-5365C29E729F}">
+          <x14:cfRule type="cellIs" priority="47" stopIfTrue="1" operator="equal" id="{AA12353A-2D03-1843-845F-263141E4634B}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{4ABE9637-38A8-F54B-ACBB-5365C29E729F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13560,17 +13838,17 @@
           <xm:sqref>K18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{0CA5B8E9-4DBC-BE44-AD98-CA9061684A05}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{9E52AD3F-6CF8-034B-AE6C-4E449C09991D}">
+          <x14:cfRule type="cellIs" priority="45" stopIfTrue="1" operator="equal" id="{0CA5B8E9-4DBC-BE44-AD98-CA9061684A05}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{9E52AD3F-6CF8-034B-AE6C-4E449C09991D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13583,17 +13861,17 @@
           <xm:sqref>O18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{8C7EB9E8-2C9F-FE4A-B722-DA68896E506C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{AA749C56-3DFA-8E42-9FE1-01FE4899E8BE}">
+          <x14:cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal" id="{8C7EB9E8-2C9F-FE4A-B722-DA68896E506C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{AA749C56-3DFA-8E42-9FE1-01FE4899E8BE}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13606,17 +13884,17 @@
           <xm:sqref>P18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{C5C07D45-8506-B548-9959-4B7596C90A24}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{155A3E26-82D7-2A40-87E7-99D14A89A496}">
+          <x14:cfRule type="cellIs" priority="41" stopIfTrue="1" operator="equal" id="{C5C07D45-8506-B548-9959-4B7596C90A24}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{155A3E26-82D7-2A40-87E7-99D14A89A496}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13629,17 +13907,17 @@
           <xm:sqref>S18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{67E75CC9-164A-8142-A81A-AA1A74AD793C}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{3BFE097F-9FE4-5B40-8C70-4B9D32A2755C}">
+          <x14:cfRule type="cellIs" priority="39" stopIfTrue="1" operator="equal" id="{67E75CC9-164A-8142-A81A-AA1A74AD793C}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{3BFE097F-9FE4-5B40-8C70-4B9D32A2755C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13652,17 +13930,17 @@
           <xm:sqref>U18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{11F70D15-3F89-5944-9888-57E1F4337AE3}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{0A780BC7-9CB3-904A-89EF-0667B9FE087C}">
+          <x14:cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal" id="{11F70D15-3F89-5944-9888-57E1F4337AE3}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{0A780BC7-9CB3-904A-89EF-0667B9FE087C}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13675,17 +13953,17 @@
           <xm:sqref>V18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{21F1F53F-177E-FA40-9D58-C0B8AF9234FA}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{1683E931-ED14-A842-A383-80B13624388D}">
+          <x14:cfRule type="cellIs" priority="35" stopIfTrue="1" operator="equal" id="{21F1F53F-177E-FA40-9D58-C0B8AF9234FA}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{1683E931-ED14-A842-A383-80B13624388D}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13698,17 +13976,17 @@
           <xm:sqref>Y18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{6622A191-1C6B-634E-A4AB-24175B59643E}">
-            <xm:f>contraints!$A$2</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{E2502FBE-9B11-ED4E-AA2A-DDBD4689984F}">
+          <x14:cfRule type="cellIs" priority="33" stopIfTrue="1" operator="equal" id="{6622A191-1C6B-634E-A4AB-24175B59643E}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{E2502FBE-9B11-ED4E-AA2A-DDBD4689984F}">
             <xm:f>contraints!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -13719,6 +13997,213 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>Z18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal" id="{5C877718-9B2E-E945-9750-898279919DE2}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{03716BD8-7A07-774E-A969-A4A5D02D0FF4}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>T16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal" id="{AEC3EEE3-7B3F-974A-8A70-4D8431CB88EF}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="equal" id="{5555B68A-5B35-7F49-8D92-87F94AF3D131}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>V16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal" id="{304B78AE-1784-3F44-B1C8-EC479222B19A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="14" operator="equal" id="{DB7DAA90-AA39-AF45-A88C-A95F5259BE75}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal" id="{8B034B5F-888D-EA46-927E-0393FDA95200}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{C56C2FA7-B4F0-3B4A-A9F5-A4522C9E7BAD}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>Z16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal" id="{19CEA222-9398-9A4D-BEF9-82DB6CEB2D61}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{C4700EBE-710D-2148-A741-5D6115C1729F}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>R16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="7" stopIfTrue="1" operator="equal" id="{29D888FC-3F78-3F48-BCB0-682B818F913F}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{ED8AFE19-CB69-5647-8B6B-CC68F4168B60}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal" id="{A9ADA1A4-8A75-C64D-9950-E7E7F02C28D0}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{42CAFC3F-A21D-B14B-A854-73DEE4ADC08B}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="3" stopIfTrue="1" operator="equal" id="{FC0E7076-4D29-4B4E-B769-930FF05E833A}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{DE756220-EA4B-5B4F-AFD1-873E8BAFEDE0}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal" id="{732C6E33-A3B9-FF46-9BF5-1C8EDBE5CFEF}">
+            <xm:f>contraints!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{0D7D3F7E-F9BF-1646-BC38-D0AE7AB742ED}">
+            <xm:f>contraints!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13771,13 +14256,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -13792,13 +14277,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -13813,15 +14298,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fix_.xlsx
+++ b/fix_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahbab01/cca/cca_fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE25DAC1-6E0A-7B4C-93A5-9153D1F54DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FA440B-78A5-144E-8893-E4335EBCB8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grounds" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">contraints!$A$1:$A$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grounds!$A$1:$Z$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Grounds!$A$1:$AC$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">contraints!$D$9:$D$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="457">
   <si>
     <t>Division</t>
   </si>
@@ -60,60 +60,6 @@
   </si>
   <si>
     <t>Ground URL</t>
-  </si>
-  <si>
-    <t>06/05/2023</t>
-  </si>
-  <si>
-    <t>13/05/2023</t>
-  </si>
-  <si>
-    <t>20/05/2023</t>
-  </si>
-  <si>
-    <t>27/05/2023</t>
-  </si>
-  <si>
-    <t>03/06/2023</t>
-  </si>
-  <si>
-    <t>10/06/2023</t>
-  </si>
-  <si>
-    <t>17/06/2023</t>
-  </si>
-  <si>
-    <t>24/06/2023</t>
-  </si>
-  <si>
-    <t>01/07/2023</t>
-  </si>
-  <si>
-    <t>08/07/2023</t>
-  </si>
-  <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t>22/07/2023</t>
-  </si>
-  <si>
-    <t>29/07/2023</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
-    <t>12/08/2023</t>
-  </si>
-  <si>
-    <t>19/08/2023</t>
-  </si>
-  <si>
-    <t>26/08/2023</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
   </si>
   <si>
     <t>CCA Senior League Division 1</t>
@@ -1470,6 +1416,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1984,7 +1933,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1992,6 +1941,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2037,231 +1987,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="359">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="345">
     <dxf>
       <fill>
         <patternFill>
@@ -2321,6 +2047,132 @@
       <fill>
         <patternFill>
           <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4867,15 +4719,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4888,6 +4739,8 @@
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -4907,7 +4760,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -4915,88 +4768,88 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7">
+        <v>45052</v>
+      </c>
+      <c r="J1" s="7">
+        <v>45059</v>
+      </c>
+      <c r="K1" s="7">
+        <v>45066</v>
+      </c>
+      <c r="L1" s="7">
+        <v>45073</v>
+      </c>
+      <c r="M1" s="7">
+        <v>45080</v>
+      </c>
+      <c r="N1" s="7">
+        <v>45087</v>
+      </c>
+      <c r="O1" s="7">
+        <v>45094</v>
+      </c>
+      <c r="P1" s="7">
+        <v>45101</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>45108</v>
+      </c>
+      <c r="R1" s="7">
+        <v>45115</v>
+      </c>
+      <c r="S1" s="7">
+        <v>45122</v>
+      </c>
+      <c r="T1" s="7">
+        <v>45129</v>
+      </c>
+      <c r="U1" s="7">
+        <v>45136</v>
+      </c>
+      <c r="V1" s="7">
+        <v>45143</v>
+      </c>
+      <c r="W1" s="7">
+        <v>45150</v>
+      </c>
+      <c r="X1" s="7">
+        <v>45157</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>45164</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>45171</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
       <c r="H2" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="AA2" s="6">
         <f>COUNTIF(I2:Z2,"No Home")</f>
@@ -5011,33 +4864,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="AA3" s="6">
         <f t="shared" ref="AA3:AA66" si="0">COUNTIF(I3:Z3,"No Home")</f>
@@ -5052,30 +4905,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA4" s="6">
         <f t="shared" si="0"/>
@@ -5090,30 +4943,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
@@ -5128,30 +4981,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
@@ -5166,24 +5019,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="AA7" s="6">
         <f t="shared" si="0"/>
@@ -5198,30 +5051,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AA8" s="6">
         <f t="shared" si="0"/>
@@ -5236,30 +5089,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="0"/>
@@ -5274,30 +5127,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="0"/>
@@ -5312,54 +5165,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="I11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="O11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="R11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="W11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA11" s="6">
         <f t="shared" si="0"/>
@@ -5374,24 +5227,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="AA12" s="6">
         <f t="shared" si="0"/>
@@ -5406,57 +5259,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="L13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="O13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Q13" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="S13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="X13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z13" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="0"/>
@@ -5471,57 +5324,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="N14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="R14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="X14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z14" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" si="0"/>
@@ -5536,84 +5389,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" t="s">
         <v>450</v>
       </c>
-      <c r="I15" t="s">
-        <v>468</v>
-      </c>
       <c r="J15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="L15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="N15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="O15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="P15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="Q15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="R15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="S15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="T15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="U15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="V15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="W15" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="X15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z15" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" si="0"/>
@@ -5630,82 +5483,82 @@
     </row>
     <row r="16" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="J16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="K16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="L16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="M16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="N16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="O16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="Q16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="R16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="S16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="T16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="U16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="V16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="W16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="X16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="Y16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z16" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="AA16" s="6">
         <f t="shared" si="0"/>
@@ -5720,30 +5573,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" si="0"/>
@@ -5758,57 +5611,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="I18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="O18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="S18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="V18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z18" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA18" s="6">
         <f t="shared" si="0"/>
@@ -5823,27 +5676,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="Q19" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA19" s="6">
         <f t="shared" si="0"/>
@@ -5858,30 +5711,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="AA20" s="6">
         <f t="shared" si="0"/>
@@ -5896,33 +5749,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="P21" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA21" s="6">
         <f t="shared" si="0"/>
@@ -5937,24 +5790,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AA22" s="6">
         <f t="shared" si="0"/>
@@ -5969,30 +5822,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="0"/>
@@ -6007,30 +5860,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="AA24" s="6">
         <f t="shared" si="0"/>
@@ -6045,27 +5898,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="Y25" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="0"/>
@@ -6080,33 +5933,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="R26" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA26" s="6">
         <f t="shared" si="0"/>
@@ -6121,36 +5974,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>105</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s">
-        <v>124</v>
-      </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Q27" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA27" s="6">
         <f t="shared" si="0"/>
@@ -6165,33 +6018,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="I28" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA28" s="6">
         <f t="shared" si="0"/>
@@ -6206,24 +6059,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="AA29" s="6">
         <f t="shared" si="0"/>
@@ -6238,30 +6091,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="AA30" s="6">
         <f t="shared" si="0"/>
@@ -6276,30 +6129,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="AA31" s="6">
         <f t="shared" si="0"/>
@@ -6314,48 +6167,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="I32" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="J32" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K32" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="L32" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="X32" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y32" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA32" s="6">
         <f t="shared" si="0"/>
@@ -6370,30 +6223,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="AA33" s="6">
         <f t="shared" si="0"/>
@@ -6408,30 +6261,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AA34" s="6">
         <f t="shared" si="0"/>
@@ -6446,30 +6299,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" t="s">
-        <v>154</v>
-      </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="0"/>
@@ -6484,60 +6337,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
         <v>137</v>
       </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="J36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="O36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P36" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="Q36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="R36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="V36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="W36" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA36" s="6">
         <f t="shared" si="0"/>
@@ -6552,54 +6405,54 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="N37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Q37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="W37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y37" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA37" s="6">
         <f t="shared" si="0"/>
@@ -6614,30 +6467,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H38" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AA38" s="6">
         <f t="shared" si="0"/>
@@ -6652,30 +6505,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AA39" s="6">
         <f t="shared" si="0"/>
@@ -6690,30 +6543,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="AA40" s="6">
         <f t="shared" si="0"/>
@@ -6728,54 +6581,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="J41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="L41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="O41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="R41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="T41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U41" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA41" s="6">
         <f t="shared" si="0"/>
@@ -6790,33 +6643,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G42" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H42" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="J42" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA42" s="6">
         <f t="shared" si="0"/>
@@ -6831,30 +6684,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F43" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H43" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="AA43" s="6">
         <f t="shared" si="0"/>
@@ -6869,24 +6722,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
         <v>171</v>
       </c>
-      <c r="B44" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" t="s">
-        <v>189</v>
-      </c>
       <c r="H44" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="AA44" s="6">
         <f t="shared" si="0"/>
@@ -6901,30 +6754,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
         <v>172</v>
       </c>
-      <c r="C45" t="s">
-        <v>190</v>
-      </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G45" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="H45" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="AA45" s="6">
         <f t="shared" si="0"/>
@@ -6939,33 +6792,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="H46" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="Q46" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA46" s="6">
         <f t="shared" si="0"/>
@@ -6980,30 +6833,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AA47" s="6">
         <f t="shared" si="0"/>
@@ -7018,33 +6871,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F48" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H48" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA48" s="6">
         <f t="shared" si="0"/>
@@ -7059,33 +6912,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="O49" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA49" s="6">
         <f t="shared" si="0"/>
@@ -7100,36 +6953,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D50" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G50" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H50" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="L50" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="Y50" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA50" s="6">
         <f t="shared" si="0"/>
@@ -7144,30 +6997,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AA51" s="6">
         <f t="shared" si="0"/>
@@ -7182,33 +7035,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="H52" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="O52" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA52" s="6">
         <f t="shared" si="0"/>
@@ -7223,30 +7076,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AA53" s="6">
         <f t="shared" si="0"/>
@@ -7261,33 +7114,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
         <v>206</v>
       </c>
-      <c r="B54" t="s">
+      <c r="F54" t="s">
         <v>207</v>
       </c>
-      <c r="C54" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" t="s">
-        <v>225</v>
-      </c>
       <c r="G54" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H54" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA54" s="6">
         <f t="shared" si="0"/>
@@ -7302,54 +7155,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G55" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H55" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="I55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="N55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="P55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="S55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="V55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z55" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA55" s="6">
         <f t="shared" si="0"/>
@@ -7364,24 +7217,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="H56" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="AA56" s="6">
         <f t="shared" si="0"/>
@@ -7396,30 +7249,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="H57" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AA57" s="6">
         <f t="shared" si="0"/>
@@ -7434,30 +7287,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="H58" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AA58" s="6">
         <f t="shared" si="0"/>
@@ -7472,30 +7325,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G59" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="H59" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="AA59" s="6">
         <f t="shared" si="0"/>
@@ -7510,33 +7363,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="P60" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA60" s="6">
         <f t="shared" si="0"/>
@@ -7551,30 +7404,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F61" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="AA61" s="6">
         <f t="shared" si="0"/>
@@ -7589,30 +7442,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" t="s">
         <v>232</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
         <v>233</v>
       </c>
-      <c r="C62" t="s">
-        <v>250</v>
-      </c>
-      <c r="D62" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" t="s">
-        <v>251</v>
-      </c>
       <c r="F62" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="G62" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="AA62" s="6">
         <f t="shared" si="0"/>
@@ -7627,24 +7480,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AA63" s="6">
         <f t="shared" si="0"/>
@@ -7659,39 +7512,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B64" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="Q64" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="R64" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z64" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA64" s="6">
         <f t="shared" si="0"/>
@@ -7706,27 +7559,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H65" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="K65" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA65" s="6">
         <f t="shared" si="0"/>
@@ -7741,36 +7594,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B66" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="F66" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G66" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="K66" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y66" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA66" s="6">
         <f t="shared" si="0"/>
@@ -7785,57 +7638,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="F67" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H67" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="K67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="N67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="O67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Q67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="S67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="U67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="V67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Z67" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA67" s="6">
         <f t="shared" ref="AA67:AA130" si="3">COUNTIF(I67:Z67,"No Home")</f>
@@ -7850,30 +7703,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="H68" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AA68" s="6">
         <f t="shared" si="3"/>
@@ -7888,33 +7741,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="D69" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="G69" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="H69" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="Q69" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA69" s="6">
         <f t="shared" si="3"/>
@@ -7929,33 +7782,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C70" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F70" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="G70" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H70" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I70" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA70" s="6">
         <f t="shared" si="3"/>
@@ -7970,30 +7823,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="G71" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="H71" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AA71" s="6">
         <f t="shared" si="3"/>
@@ -8008,33 +7861,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" t="s">
         <v>265</v>
       </c>
-      <c r="B72" t="s">
+      <c r="G72" t="s">
         <v>266</v>
       </c>
-      <c r="C72" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" t="s">
-        <v>282</v>
-      </c>
-      <c r="F72" t="s">
-        <v>283</v>
-      </c>
-      <c r="G72" t="s">
-        <v>284</v>
-      </c>
       <c r="H72" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="Y72" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA72" s="6">
         <f t="shared" si="3"/>
@@ -8049,30 +7902,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="H73" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="AA73" s="6">
         <f t="shared" si="3"/>
@@ -8087,33 +7940,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="P74" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA74" s="6">
         <f t="shared" si="3"/>
@@ -8128,30 +7981,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D75" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E75" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AA75" s="6">
         <f t="shared" si="3"/>
@@ -8166,30 +8019,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="AA76" s="6">
         <f t="shared" si="3"/>
@@ -8204,27 +8057,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="H77" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="V77" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA77" s="6">
         <f t="shared" si="3"/>
@@ -8239,30 +8092,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="F78" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="G78" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="H78" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AA78" s="6">
         <f t="shared" si="3"/>
@@ -8277,30 +8130,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="AA79" s="6">
         <f t="shared" si="3"/>
@@ -8315,33 +8168,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B80" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="F80" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="H80" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="K80" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA80" s="6">
         <f t="shared" si="3"/>
@@ -8356,24 +8209,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="H81" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="AA81" s="6">
         <f t="shared" si="3"/>
@@ -8388,33 +8241,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F82" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G82" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H82" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="I82" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA82" s="6">
         <f t="shared" si="3"/>
@@ -8429,30 +8282,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F83" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G83" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H83" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="AA83" s="6">
         <f t="shared" si="3"/>
@@ -8467,33 +8320,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" t="s">
         <v>290</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>291</v>
       </c>
-      <c r="C84" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" t="s">
-        <v>308</v>
-      </c>
-      <c r="E84" t="s">
-        <v>309</v>
-      </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H84" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="Q84" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA84" s="6">
         <f t="shared" si="3"/>
@@ -8508,36 +8361,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G85" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H85" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="L85" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="Y85" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA85" s="6">
         <f t="shared" si="3"/>
@@ -8552,33 +8405,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F86" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H86" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="Q86" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA86" s="6">
         <f t="shared" si="3"/>
@@ -8593,27 +8446,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="H87" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="Y87" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA87" s="6">
         <f t="shared" si="3"/>
@@ -8628,30 +8481,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="F88" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="G88" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="H88" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="AA88" s="6">
         <f t="shared" si="3"/>
@@ -8666,30 +8519,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B89" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F89" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G89" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="AA89" s="6">
         <f t="shared" si="3"/>
@@ -8704,30 +8557,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B90" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="F90" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="G90" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="H90" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="AA90" s="6">
         <f t="shared" si="3"/>
@@ -8742,30 +8595,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" t="s">
         <v>312</v>
       </c>
-      <c r="B91" t="s">
-        <v>313</v>
-      </c>
-      <c r="C91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D91" t="s">
-        <v>63</v>
-      </c>
-      <c r="E91" t="s">
-        <v>330</v>
-      </c>
       <c r="F91" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G91" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H91" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="AA91" s="6">
         <f t="shared" si="3"/>
@@ -8780,30 +8633,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" t="s">
         <v>313</v>
       </c>
-      <c r="C92" t="s">
-        <v>331</v>
-      </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F92" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="G92" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="H92" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="AA92" s="6">
         <f t="shared" si="3"/>
@@ -8818,27 +8671,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C93" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="H93" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="N93" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA93" s="6">
         <f t="shared" si="3"/>
@@ -8853,30 +8706,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C94" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D94" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E94" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G94" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H94" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="AA94" s="6">
         <f t="shared" si="3"/>
@@ -8891,30 +8744,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D95" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G95" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H95" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="AA95" s="6">
         <f t="shared" si="3"/>
@@ -8929,30 +8782,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B96" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E96" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="G96" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="H96" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="AA96" s="6">
         <f t="shared" si="3"/>
@@ -8967,30 +8820,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B97" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C97" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F97" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G97" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="H97" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="AA97" s="6">
         <f t="shared" si="3"/>
@@ -9005,30 +8858,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B98" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H98" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AA98" s="6">
         <f t="shared" si="3"/>
@@ -9043,30 +8896,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D99" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E99" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F99" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G99" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H99" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AA99" s="6">
         <f t="shared" si="3"/>
@@ -9081,33 +8934,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C100" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="F100" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="G100" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="H100" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="Z100" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA100" s="6">
         <f t="shared" si="3"/>
@@ -9122,30 +8975,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E101" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="AA101" s="6">
         <f t="shared" si="3"/>
@@ -9160,24 +9013,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B102" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E102" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="H102" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="AA102" s="6">
         <f t="shared" si="3"/>
@@ -9192,24 +9045,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B103" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C103" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="H103" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AA103" s="6">
         <f t="shared" si="3"/>
@@ -9224,24 +9077,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C104" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E104" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="H104" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="AA104" s="6">
         <f t="shared" si="3"/>
@@ -9256,30 +9109,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B105" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D105" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E105" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="F105" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G105" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="H105" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="AA105" s="6">
         <f t="shared" si="3"/>
@@ -9294,33 +9147,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B106" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D106" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E106" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="G106" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="H106" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="Q106" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA106" s="6">
         <f t="shared" si="3"/>
@@ -9335,30 +9188,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C107" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="F107" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="G107" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="H107" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="AA107" s="6">
         <f t="shared" si="3"/>
@@ -9373,30 +9226,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B108" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C108" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E108" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="F108" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H108" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="AA108" s="6">
         <f t="shared" si="3"/>
@@ -9411,27 +9264,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B109" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E109" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="H109" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="K109" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA109" s="6">
         <f t="shared" si="3"/>
@@ -9446,36 +9299,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C110" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F110" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G110" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="H110" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="O110" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="R110" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA110" s="6">
         <f t="shared" si="3"/>
@@ -9490,30 +9343,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C111" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D111" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E111" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G111" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H111" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AA111" s="6">
         <f t="shared" si="3"/>
@@ -9528,30 +9381,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B112" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D112" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E112" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="F112" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G112" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H112" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="AA112" s="6">
         <f t="shared" si="3"/>
@@ -9566,33 +9419,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E113" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="F113" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G113" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H113" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="Y113" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA113" s="6">
         <f t="shared" si="3"/>
@@ -9607,30 +9460,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C114" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F114" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="G114" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="H114" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="AA114" s="6">
         <f t="shared" si="3"/>
@@ -9645,30 +9498,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C115" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F115" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G115" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="H115" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="AA115" s="6">
         <f t="shared" si="3"/>
@@ -9683,30 +9536,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>350</v>
+      </c>
+      <c r="B116" t="s">
+        <v>351</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>77</v>
+      </c>
+      <c r="E116" t="s">
+        <v>367</v>
+      </c>
+      <c r="F116" t="s">
         <v>368</v>
       </c>
-      <c r="B116" t="s">
+      <c r="G116" t="s">
         <v>369</v>
       </c>
-      <c r="C116" t="s">
-        <v>86</v>
-      </c>
-      <c r="D116" t="s">
-        <v>95</v>
-      </c>
-      <c r="E116" t="s">
-        <v>385</v>
-      </c>
-      <c r="F116" t="s">
-        <v>386</v>
-      </c>
-      <c r="G116" t="s">
-        <v>387</v>
-      </c>
       <c r="H116" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="AA116" s="6">
         <f t="shared" si="3"/>
@@ -9721,36 +9574,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F117" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="G117" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="H117" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="O117" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y117" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA117" s="6">
         <f t="shared" si="3"/>
@@ -9765,36 +9618,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C118" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D118" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E118" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F118" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="G118" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="H118" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="L118" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="Y118" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA118" s="6">
         <f t="shared" si="3"/>
@@ -9809,33 +9662,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D119" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E119" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F119" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G119" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H119" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="J119" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA119" s="6">
         <f t="shared" si="3"/>
@@ -9850,36 +9703,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D120" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E120" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F120" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G120" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H120" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="R120" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Y120" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA120" s="6">
         <f t="shared" si="3"/>
@@ -9894,36 +9747,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D121" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E121" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F121" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G121" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H121" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="K121" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="Q121" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA121" s="6">
         <f t="shared" si="3"/>
@@ -9940,28 +9793,28 @@
     </row>
     <row r="122" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B122" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E122" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="F122" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G122" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="H122" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="AA122" s="6">
         <f t="shared" si="3"/>
@@ -9976,30 +9829,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B123" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C123" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D123" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E123" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F123" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G123" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="H123" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="AA123" s="6">
         <f t="shared" si="3"/>
@@ -10014,33 +9867,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B124" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D124" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E124" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="F124" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="H124" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="Y124" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA124" s="6">
         <f t="shared" si="3"/>
@@ -10055,30 +9908,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D125" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E125" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="G125" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="H125" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="AA125" s="6">
         <f t="shared" si="3"/>
@@ -10093,30 +9946,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C126" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D126" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E126" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="F126" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G126" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="H126" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="AA126" s="6">
         <f t="shared" si="3"/>
@@ -10131,33 +9984,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B127" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C127" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E127" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F127" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G127" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="H127" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="Q127" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA127" s="6">
         <f t="shared" si="3"/>
@@ -10172,30 +10025,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B128" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C128" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D128" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E128" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="F128" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="G128" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="H128" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="AA128" s="6">
         <f t="shared" si="3"/>
@@ -10210,24 +10063,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D129" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E129" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="H129" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="AA129" s="6">
         <f t="shared" si="3"/>
@@ -10242,33 +10095,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B130" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C130" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D130" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E130" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="F130" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="G130" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H130" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="L130" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AA130" s="6">
         <f t="shared" si="3"/>
@@ -10283,33 +10136,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C131" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="D131" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E131" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F131" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="G131" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H131" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="Y131" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AA131" s="6">
         <f t="shared" ref="AA131" si="8">COUNTIF(I131:Z131,"No Home")</f>
@@ -10324,19 +10177,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <v>20</v>
+      </c>
+    </row>
     <row r="164" spans="20:20" x14ac:dyDescent="0.2">
       <c r="T164" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z131" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="March Town CC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -14236,33 +14088,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M21" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="11">
@@ -14277,13 +14129,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"No Hme"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -14298,15 +14150,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$A$2</formula>
     </cfRule>
   </conditionalFormatting>
